--- a/Gastos_ingresos_calculados_2025.xlsx
+++ b/Gastos_ingresos_calculados_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://allfundsbanksau-my.sharepoint.com/personal/carlos_bordas_allfunds_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Allfunds_CB\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="532" documentId="11_634289BC3CE6504684D11724183A6C3A49741470" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC7524E2-6E6E-448D-925A-965E7768F0FD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CDF6FC-2AAC-47D2-9AF1-524DBB896F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,8 +49,8 @@
     <author>tc={16A2CD11-91B5-4ED0-A53A-C59456EFB1B2}</author>
     <author>tc={63F0D1F1-B9A3-4C41-94E3-919EA4B3D465}</author>
     <author>tc={D239227B-ECE8-4B4D-8CA5-CD85225F55F6}</author>
-    <author>tc={E2685ADA-2F5F-4FD3-993D-C44E9CC4B37B}</author>
-    <author>tc={8CAFE2EA-3135-41F8-A3F1-DEE619C02A6C}</author>
+    <author>tc={36D9CB0B-B078-42C1-AA1D-DCFDD2515750}</author>
+    <author>tc={6B1573CA-7DB3-4CFC-8EE8-E90A359009E4}</author>
     <author>tc={5AE7D469-F209-45F7-9CEF-DC168E80F1EF}</author>
     <author>tc={1FD83A3F-4D00-4720-B574-BF1207731575}</author>
     <author>tc={88F70749-3707-4B8B-B04C-B2D930BA86CD}</author>
@@ -218,20 +218,22 @@
     Revisar fecha de pago en Febrero</t>
       </text>
     </comment>
-    <comment ref="B31" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="B31" authorId="5" shapeId="0" xr:uid="{36D9CB0B-B078-42C1-AA1D-DCFDD2515750}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
-    Pagos 13/05, 27/06 y 11/08</t>
+    1º cuota: 13/5, 2º cuota: 13/6, 3º cuota: 13/7</t>
       </text>
     </comment>
-    <comment ref="B32" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="B32" authorId="6" shapeId="0" xr:uid="{6B1573CA-7DB3-4CFC-8EE8-E90A359009E4}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
-    Pagos 06/08, 20/09 y 4/11</t>
+    1º cuota: 6/8
+2º cuota: 6/9
+3º cuota: 6/10</t>
       </text>
     </comment>
     <comment ref="C35" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
@@ -247,7 +249,7 @@
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
-    Día 2 de cada mes</t>
+    Día 1-5 de cada mes, 18 cuotas desde 1/10, última cuota: 1 de Marzo de 2026. Pagado 9 cuotas= 132,22*9 = 1189,98€</t>
       </text>
     </comment>
     <comment ref="C37" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
@@ -306,7 +308,7 @@
     El resto: 680€ a la llegada el domingo 20/7</t>
       </text>
     </comment>
-    <comment ref="B142" authorId="16" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="B143" authorId="16" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -357,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="246">
   <si>
     <t>IVA</t>
   </si>
@@ -857,9 +859,6 @@
     <t>GASTO GASOLINA</t>
   </si>
   <si>
-    <t>REGALOS</t>
-  </si>
-  <si>
     <t>Empresa</t>
   </si>
   <si>
@@ -1031,9 +1030,6 @@
     <t>CREDITO MOVIL S25 (30 de cada mes)</t>
   </si>
   <si>
-    <t>OPERACION MIOPIA CRIS (día 2 de cada mes)</t>
-  </si>
-  <si>
     <t>FUNDA TELEFONO</t>
   </si>
   <si>
@@ -1092,6 +1088,15 @@
   </si>
   <si>
     <t>PERFUMES</t>
+  </si>
+  <si>
+    <t>OPERACION MIOPIA CRIS (día 1-5 de cada mes)</t>
+  </si>
+  <si>
+    <t>CUMPLEAÑOS</t>
+  </si>
+  <si>
+    <t>VACACIONES GALICIA</t>
   </si>
 </sst>
 </file>
@@ -1991,17 +1996,19 @@
   <threadedComment ref="C30" dT="2025-05-19T07:15:55.70" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{D239227B-ECE8-4B4D-8CA5-CD85225F55F6}">
     <text>Revisar fecha de pago en Febrero</text>
   </threadedComment>
-  <threadedComment ref="B31" dT="2023-06-16T13:35:05.40" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{E2685ADA-2F5F-4FD3-993D-C44E9CC4B37B}">
-    <text>Pagos 13/05, 27/06 y 11/08</text>
+  <threadedComment ref="B31" dT="2025-07-01T09:10:50.24" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{36D9CB0B-B078-42C1-AA1D-DCFDD2515750}">
+    <text>1º cuota: 13/5, 2º cuota: 13/6, 3º cuota: 13/7</text>
   </threadedComment>
-  <threadedComment ref="B32" dT="2023-06-16T13:35:58.91" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{8CAFE2EA-3135-41F8-A3F1-DEE619C02A6C}">
-    <text>Pagos 06/08, 20/09 y 4/11</text>
+  <threadedComment ref="B32" dT="2025-07-01T09:11:30.59" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{6B1573CA-7DB3-4CFC-8EE8-E90A359009E4}">
+    <text>1º cuota: 6/8
+2º cuota: 6/9
+3º cuota: 6/10</text>
   </threadedComment>
   <threadedComment ref="C35" dT="2022-06-06T14:39:18.34" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{5AE7D469-F209-45F7-9CEF-DC168E80F1EF}">
     <text>Primer pago 21/06</text>
   </threadedComment>
   <threadedComment ref="C36" dT="2025-06-09T08:14:42.39" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{1FD83A3F-4D00-4720-B574-BF1207731575}">
-    <text>Día 2 de cada mes</text>
+    <text>Día 1-5 de cada mes, 18 cuotas desde 1/10, última cuota: 1 de Marzo de 2026. Pagado 9 cuotas= 132,22*9 = 1189,98€</text>
   </threadedComment>
   <threadedComment ref="C37" dT="2025-01-17T18:11:00.46" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{88F70749-3707-4B8B-B04C-B2D930BA86CD}">
     <text>Regalos abus, regalos sobris, regalos ahijado y amigo invisible, regalos hijos y amigos invisibles/padrinos y regalos Cris.</text>
@@ -2024,7 +2031,7 @@
   <threadedComment ref="C43" dT="2025-05-19T07:21:34.30" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{DCA9F100-944C-49CA-BE4F-42E2DC0607F4}">
     <text>El resto: 680€ a la llegada el domingo 20/7</text>
   </threadedComment>
-  <threadedComment ref="B142" dT="2022-06-06T13:27:53.22" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{DD2FEDF0-3221-4FF5-8FE7-298256927858}">
+  <threadedComment ref="B143" dT="2022-06-06T13:27:53.22" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{DD2FEDF0-3221-4FF5-8FE7-298256927858}">
     <text>Primera cuota el el 21/06, última en octubre</text>
   </threadedComment>
 </ThreadedComments>
@@ -2032,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2057,7 +2064,7 @@
         <v>151</v>
       </c>
       <c r="B1" s="8">
-        <v>4777.8999999999996</v>
+        <v>2169.85</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2071,8 +2078,8 @@
         <v>152</v>
       </c>
       <c r="B2" s="8">
-        <f>12769.95-5000</f>
-        <v>7769.9500000000007</v>
+        <f>11545.36-5000</f>
+        <v>6545.3600000000006</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2191,7 +2198,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="2"/>
@@ -2221,10 +2228,10 @@
       </c>
       <c r="B13" s="18">
         <f>B5-C13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="27">
         <v>1048.93</v>
-      </c>
-      <c r="C13" s="27">
-        <v>0</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="2"/>
@@ -2238,10 +2245,10 @@
       </c>
       <c r="B14" s="18">
         <f>40-C14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
         <v>40</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="2"/>
@@ -2254,11 +2261,11 @@
         <v>68</v>
       </c>
       <c r="B15" s="18">
-        <f>40-C15</f>
-        <v>40</v>
+        <f>150-C15</f>
+        <v>0</v>
       </c>
       <c r="C15" s="18">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="2"/>
@@ -2271,11 +2278,11 @@
         <v>53</v>
       </c>
       <c r="B16" s="18">
-        <f>83.79-C16</f>
-        <v>83.79</v>
+        <f>85.46-C16</f>
+        <v>0</v>
       </c>
       <c r="C16" s="18">
-        <v>0</v>
+        <v>85.46</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="2"/>
@@ -2288,11 +2295,11 @@
         <v>55</v>
       </c>
       <c r="B17" s="18">
-        <f>150*2-C17</f>
+        <f>(150*3)-C17</f>
         <v>300</v>
       </c>
       <c r="C17" s="18">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="2"/>
@@ -2306,10 +2313,11 @@
       </c>
       <c r="B18" s="18">
         <f>(30*4+70*3)-C18</f>
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="C18" s="18">
-        <v>0</v>
+        <f>70*2</f>
+        <v>140</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="2"/>
@@ -2518,11 +2526,11 @@
         <v>73</v>
       </c>
       <c r="B31" s="28">
-        <v>145.62</v>
+        <v>0</v>
       </c>
       <c r="C31" s="28">
-        <f>149.88+145.62+145.62</f>
-        <v>441.12</v>
+        <f>(199.84-49.96)+(194.16-48.64)+(194.16-48.54)</f>
+        <v>441.02</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="2"/>
@@ -2535,12 +2543,11 @@
         <v>72</v>
       </c>
       <c r="B32" s="28">
-        <f>145.34+138.61+138.61-C32</f>
         <v>0</v>
       </c>
       <c r="C32" s="28">
-        <f>145.34+138.61+138.61</f>
-        <v>422.56000000000006</v>
+        <f>(345.45)/3</f>
+        <v>115.14999999999999</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="2"/>
@@ -2571,7 +2578,7 @@
         <v>93</v>
       </c>
       <c r="B34" s="28">
-        <f>E138-C34</f>
+        <f>E139-C34</f>
         <v>0</v>
       </c>
       <c r="C34" s="28">
@@ -2588,7 +2595,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="28">
-        <f>B142</f>
+        <f>B143</f>
         <v>149.26</v>
       </c>
       <c r="C35" s="28">
@@ -2602,14 +2609,14 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="B36" s="28">
         <f>132.22-C36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="28">
         <v>132.22</v>
-      </c>
-      <c r="C36" s="28">
-        <v>0</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="2"/>
@@ -2619,14 +2626,13 @@
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="B37" s="28">
+        <v>0</v>
+      </c>
+      <c r="C37" s="28">
         <v>150</v>
-      </c>
-      <c r="C37" s="28">
-        <f>(50*2)+(25*3)+(50)+15+(50*2)+(50)</f>
-        <v>390</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="2"/>
@@ -2636,14 +2642,14 @@
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B38" s="28">
-        <f>65-C38</f>
-        <v>65</v>
+        <f>65.17-C38</f>
+        <v>0</v>
       </c>
       <c r="C38" s="28">
-        <v>0</v>
+        <v>65.17</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2655,10 +2661,11 @@
         <v>111</v>
       </c>
       <c r="B39" s="28">
+        <f>300-C39</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="28">
         <v>300</v>
-      </c>
-      <c r="C39" s="28">
-        <v>0</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="2"/>
@@ -2688,7 +2695,7 @@
         <v>154</v>
       </c>
       <c r="B41" s="28">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C41" s="28">
         <f>155+83.32+20</f>
@@ -2702,14 +2709,13 @@
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B42" s="28">
-        <f>429.92+B162</f>
-        <v>889.92000000000007</v>
+        <v>0</v>
       </c>
       <c r="C42" s="28">
-        <f>(107.49+429.92)+B162</f>
+        <f>(107.49+429.92)+B163</f>
         <v>997.41</v>
       </c>
       <c r="D42" s="53"/>
@@ -2720,14 +2726,13 @@
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B43" s="28">
-        <f>680+B162</f>
-        <v>1140</v>
+        <v>0</v>
       </c>
       <c r="C43" s="28">
-        <f>(100+680)+B162</f>
+        <f>(100+680)+B163</f>
         <v>1240</v>
       </c>
       <c r="D43" s="28"/>
@@ -2738,10 +2743,10 @@
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="B44" s="28">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C44" s="28">
         <v>0</v>
@@ -2753,40 +2758,41 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="8">
-        <f>SUM(B12:B44)</f>
-        <v>4964.7433333333338</v>
-      </c>
-      <c r="C45" s="8">
-        <f>SUM(C12:C30)</f>
-        <v>4897.09</v>
-      </c>
-      <c r="D45" s="8"/>
+      <c r="A45" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="28">
+        <v>0</v>
+      </c>
+      <c r="C45" s="28">
+        <v>0</v>
+      </c>
+      <c r="D45" s="28"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="2"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="8">
+        <f>SUM(B12:B45)</f>
+        <v>1039.2633333333333</v>
+      </c>
+      <c r="C46" s="8">
+        <f>SUM(C12:C30)</f>
+        <v>6511.4800000000005</v>
+      </c>
+      <c r="D46" s="8"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="9">
-        <f>SUM(B1:B3)-B45</f>
-        <v>7583.1066666666666</v>
-      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="18"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2795,7 +2801,13 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="2"/>
+      <c r="A48" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="9">
+        <f>SUM(B1:B3)-B46</f>
+        <v>7675.9466666666676</v>
+      </c>
       <c r="C48" s="18"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2804,14 +2816,7 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="str">
-        <f ca="1">"DEPOSITO EN LITROS A FECHA: "&amp;TEXT(TODAY(),"dd-MM-aaaa")</f>
-        <v>DEPOSITO EN LITROS A FECHA: 25-06-2025</v>
-      </c>
-      <c r="B49" s="17">
-        <f>C110</f>
-        <v>400</v>
-      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="18"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2820,17 +2825,16 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="23">
-        <f>B118</f>
-        <v>3.7383177570093458</v>
+      <c r="A50" s="10" t="str">
+        <f ca="1">"DEPOSITO EN LITROS A FECHA: "&amp;TEXT(TODAY(),"dd-MM-aaaa")</f>
+        <v>DEPOSITO EN LITROS A FECHA: 07-08-2025</v>
+      </c>
+      <c r="B50" s="17">
+        <f>C111</f>
+        <v>400</v>
       </c>
       <c r="C50" s="18"/>
-      <c r="D50" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2838,29 +2842,30 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="17">
-        <f>C107/B50</f>
-        <v>80.25</v>
+        <v>69</v>
+      </c>
+      <c r="B51" s="23">
+        <f>B119</f>
+        <v>3.7383177570093458</v>
       </c>
       <c r="C51" s="18"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" s="5">
-        <v>44468</v>
-      </c>
-      <c r="C52" s="20">
-        <v>700</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B52" s="17">
+        <f>C108/B51</f>
+        <v>80.25</v>
+      </c>
+      <c r="C52" s="18"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2872,10 +2877,10 @@
         <v>74</v>
       </c>
       <c r="B53" s="5">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="C53" s="20">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2888,10 +2893,10 @@
         <v>74</v>
       </c>
       <c r="B54" s="5">
-        <v>44475</v>
+        <v>44469</v>
       </c>
       <c r="C54" s="20">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2904,10 +2909,10 @@
         <v>74</v>
       </c>
       <c r="B55" s="5">
-        <v>44482</v>
+        <v>44475</v>
       </c>
       <c r="C55" s="20">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2920,10 +2925,10 @@
         <v>74</v>
       </c>
       <c r="B56" s="5">
-        <v>44488</v>
+        <v>44482</v>
       </c>
       <c r="C56" s="20">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2936,10 +2941,10 @@
         <v>74</v>
       </c>
       <c r="B57" s="5">
-        <v>44496</v>
+        <v>44488</v>
       </c>
       <c r="C57" s="20">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2952,10 +2957,10 @@
         <v>74</v>
       </c>
       <c r="B58" s="5">
-        <v>44502</v>
+        <v>44496</v>
       </c>
       <c r="C58" s="20">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2968,10 +2973,10 @@
         <v>74</v>
       </c>
       <c r="B59" s="5">
-        <v>44510</v>
+        <v>44502</v>
       </c>
       <c r="C59" s="20">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2984,10 +2989,10 @@
         <v>74</v>
       </c>
       <c r="B60" s="5">
-        <v>44515</v>
+        <v>44510</v>
       </c>
       <c r="C60" s="20">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -3000,10 +3005,10 @@
         <v>74</v>
       </c>
       <c r="B61" s="5">
-        <v>44523</v>
+        <v>44515</v>
       </c>
       <c r="C61" s="20">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -3016,10 +3021,10 @@
         <v>74</v>
       </c>
       <c r="B62" s="5">
-        <v>44532</v>
+        <v>44523</v>
       </c>
       <c r="C62" s="20">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -3032,10 +3037,10 @@
         <v>74</v>
       </c>
       <c r="B63" s="5">
-        <v>44539</v>
+        <v>44532</v>
       </c>
       <c r="C63" s="20">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -3048,10 +3053,10 @@
         <v>74</v>
       </c>
       <c r="B64" s="5">
-        <v>44551</v>
+        <v>44539</v>
       </c>
       <c r="C64" s="20">
-        <v>610</v>
+        <v>260</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -3064,10 +3069,10 @@
         <v>74</v>
       </c>
       <c r="B65" s="5">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="C65" s="20">
-        <v>500</v>
+        <v>610</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -3080,10 +3085,10 @@
         <v>74</v>
       </c>
       <c r="B66" s="5">
-        <v>44568</v>
+        <v>44558</v>
       </c>
       <c r="C66" s="20">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -3096,10 +3101,10 @@
         <v>74</v>
       </c>
       <c r="B67" s="5">
-        <v>44574</v>
+        <v>44568</v>
       </c>
       <c r="C67" s="20">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -3112,10 +3117,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="5">
-        <v>44589</v>
+        <v>44574</v>
       </c>
       <c r="C68" s="20">
-        <v>810</v>
+        <v>290</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -3128,10 +3133,10 @@
         <v>74</v>
       </c>
       <c r="B69" s="5">
-        <v>44592</v>
+        <v>44589</v>
       </c>
       <c r="C69" s="20">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -3144,10 +3149,10 @@
         <v>74</v>
       </c>
       <c r="B70" s="5">
-        <v>44596</v>
+        <v>44592</v>
       </c>
       <c r="C70" s="20">
-        <v>760</v>
+        <v>780</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -3160,10 +3165,10 @@
         <v>74</v>
       </c>
       <c r="B71" s="5">
-        <v>44600</v>
+        <v>44596</v>
       </c>
       <c r="C71" s="20">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -3176,10 +3181,10 @@
         <v>74</v>
       </c>
       <c r="B72" s="5">
-        <v>44608</v>
+        <v>44600</v>
       </c>
       <c r="C72" s="20">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -3192,10 +3197,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="5">
-        <v>44630</v>
+        <v>44608</v>
       </c>
       <c r="C73" s="20">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -3208,10 +3213,10 @@
         <v>74</v>
       </c>
       <c r="B74" s="5">
-        <v>44637</v>
+        <v>44630</v>
       </c>
       <c r="C74" s="20">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -3224,10 +3229,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="5">
-        <v>44643</v>
+        <v>44637</v>
       </c>
       <c r="C75" s="20">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3240,10 +3245,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>44659</v>
+        <v>44643</v>
       </c>
       <c r="C76" s="20">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3256,10 +3261,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="5">
-        <v>44669</v>
+        <v>44659</v>
       </c>
       <c r="C77" s="20">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -3267,15 +3272,15 @@
       <c r="G77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>74</v>
       </c>
       <c r="B78" s="5">
-        <v>44841</v>
+        <v>44669</v>
       </c>
       <c r="C78" s="20">
-        <v>905</v>
+        <v>120</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -3288,10 +3293,10 @@
         <v>74</v>
       </c>
       <c r="B79" s="5">
-        <v>44853</v>
+        <v>44841</v>
       </c>
       <c r="C79" s="20">
-        <v>880</v>
+        <v>905</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -3304,10 +3309,10 @@
         <v>74</v>
       </c>
       <c r="B80" s="5">
-        <v>44869</v>
+        <v>44853</v>
       </c>
       <c r="C80" s="20">
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3320,10 +3325,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="5">
-        <v>44905</v>
+        <v>44869</v>
       </c>
       <c r="C81" s="20">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3336,10 +3341,10 @@
         <v>74</v>
       </c>
       <c r="B82" s="5">
-        <v>44914</v>
+        <v>44905</v>
       </c>
       <c r="C82" s="20">
-        <v>910</v>
+        <v>1000</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3352,10 +3357,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="5">
-        <v>44922</v>
+        <v>44914</v>
       </c>
       <c r="C83" s="20">
-        <v>850</v>
+        <v>910</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3368,10 +3373,10 @@
         <v>74</v>
       </c>
       <c r="B84" s="5">
-        <v>45290</v>
+        <v>44922</v>
       </c>
       <c r="C84" s="20">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3384,10 +3389,10 @@
         <v>74</v>
       </c>
       <c r="B85" s="5">
-        <v>44938</v>
+        <v>45290</v>
       </c>
       <c r="C85" s="20">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3400,10 +3405,10 @@
         <v>74</v>
       </c>
       <c r="B86" s="5">
-        <v>44942</v>
+        <v>44938</v>
       </c>
       <c r="C86" s="20">
-        <v>830</v>
+        <v>880</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3416,10 +3421,10 @@
         <v>74</v>
       </c>
       <c r="B87" s="5">
-        <v>44946</v>
+        <v>44942</v>
       </c>
       <c r="C87" s="20">
-        <v>790</v>
+        <v>830</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3432,10 +3437,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="5">
-        <v>44951</v>
+        <v>44946</v>
       </c>
       <c r="C88" s="20">
-        <v>730</v>
+        <v>790</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3448,10 +3453,10 @@
         <v>74</v>
       </c>
       <c r="B89" s="5">
-        <v>44958</v>
+        <v>44951</v>
       </c>
       <c r="C89" s="20">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3464,10 +3469,10 @@
         <v>74</v>
       </c>
       <c r="B90" s="5">
-        <v>44963</v>
+        <v>44958</v>
       </c>
       <c r="C90" s="20">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3480,10 +3485,10 @@
         <v>74</v>
       </c>
       <c r="B91" s="5">
-        <v>44970</v>
+        <v>44963</v>
       </c>
       <c r="C91" s="20">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3496,10 +3501,10 @@
         <v>74</v>
       </c>
       <c r="B92" s="5">
-        <v>44980</v>
+        <v>44970</v>
       </c>
       <c r="C92" s="20">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3512,10 +3517,10 @@
         <v>74</v>
       </c>
       <c r="B93" s="5">
-        <v>44991</v>
+        <v>44980</v>
       </c>
       <c r="C93" s="20">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3528,10 +3533,10 @@
         <v>74</v>
       </c>
       <c r="B94" s="5">
-        <v>44998</v>
+        <v>44991</v>
       </c>
       <c r="C94" s="20">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3544,10 +3549,10 @@
         <v>74</v>
       </c>
       <c r="B95" s="5">
-        <v>45008</v>
+        <v>44998</v>
       </c>
       <c r="C95" s="20">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3560,10 +3565,10 @@
         <v>74</v>
       </c>
       <c r="B96" s="5">
-        <v>45013</v>
+        <v>45008</v>
       </c>
       <c r="C96" s="20">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3576,10 +3581,10 @@
         <v>74</v>
       </c>
       <c r="B97" s="5">
-        <v>45083</v>
+        <v>45013</v>
       </c>
       <c r="C97" s="20">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3592,10 +3597,10 @@
         <v>74</v>
       </c>
       <c r="B98" s="5">
-        <v>45086</v>
+        <v>45083</v>
       </c>
       <c r="C98" s="20">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3608,10 +3613,10 @@
         <v>74</v>
       </c>
       <c r="B99" s="5">
-        <v>45126</v>
+        <v>45086</v>
       </c>
       <c r="C99" s="20">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3624,10 +3629,10 @@
         <v>74</v>
       </c>
       <c r="B100" s="5">
-        <v>45146</v>
+        <v>45126</v>
       </c>
       <c r="C100" s="20">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3640,10 +3645,10 @@
         <v>74</v>
       </c>
       <c r="B101" s="5">
-        <v>45236</v>
+        <v>45146</v>
       </c>
       <c r="C101" s="20">
-        <v>350</v>
+        <v>490</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3656,10 +3661,10 @@
         <v>74</v>
       </c>
       <c r="B102" s="5">
-        <v>45247</v>
+        <v>45236</v>
       </c>
       <c r="C102" s="20">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3668,14 +3673,14 @@
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="10" t="s">
+      <c r="A103" t="s">
         <v>74</v>
       </c>
       <c r="B103" s="5">
-        <v>45307</v>
+        <v>45247</v>
       </c>
       <c r="C103" s="20">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3688,10 +3693,10 @@
         <v>74</v>
       </c>
       <c r="B104" s="5">
-        <v>45327</v>
+        <v>45307</v>
       </c>
       <c r="C104" s="20">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3704,10 +3709,10 @@
         <v>74</v>
       </c>
       <c r="B105" s="5">
-        <v>45337</v>
+        <v>45327</v>
       </c>
       <c r="C105" s="20">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3720,10 +3725,10 @@
         <v>74</v>
       </c>
       <c r="B106" s="5">
-        <v>45352</v>
+        <v>45337</v>
       </c>
       <c r="C106" s="20">
-        <v>680</v>
+        <v>220</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3736,10 +3741,10 @@
         <v>74</v>
       </c>
       <c r="B107" s="5">
-        <v>45432</v>
+        <v>45352</v>
       </c>
       <c r="C107" s="20">
-        <v>300</v>
+        <v>680</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3752,10 +3757,10 @@
         <v>74</v>
       </c>
       <c r="B108" s="5">
-        <v>45454</v>
+        <v>45432</v>
       </c>
       <c r="C108" s="20">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -3768,10 +3773,10 @@
         <v>74</v>
       </c>
       <c r="B109" s="5">
-        <v>45538</v>
+        <v>45454</v>
       </c>
       <c r="C109" s="20">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3784,10 +3789,10 @@
         <v>74</v>
       </c>
       <c r="B110" s="5">
-        <v>45645</v>
+        <v>45538</v>
       </c>
       <c r="C110" s="20">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3800,10 +3805,10 @@
         <v>74</v>
       </c>
       <c r="B111" s="5">
-        <v>45686</v>
+        <v>45645</v>
       </c>
       <c r="C111" s="20">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3812,9 +3817,15 @@
       <c r="I111" s="2"/>
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="10"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="20"/>
+      <c r="A112" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="5">
+        <v>45686</v>
+      </c>
+      <c r="C112" s="20">
+        <v>550</v>
+      </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -3822,6 +3833,7 @@
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="10"/>
       <c r="B113" s="5"/>
       <c r="C113" s="20"/>
       <c r="D113" s="2"/>
@@ -3831,14 +3843,8 @@
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B114" s="21">
-        <f ca="1">TODAY()+B51-5</f>
-        <v>45908.25</v>
-      </c>
-      <c r="C114" s="18"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="20"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -3846,8 +3852,14 @@
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="A115" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B115" s="21">
+        <f ca="1">TODAY()+B52-5</f>
+        <v>45951.25</v>
+      </c>
+      <c r="C115" s="18"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -3855,13 +3867,7 @@
       <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B116" s="17">
-        <f>B110-B109</f>
-        <v>107</v>
-      </c>
+      <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3871,11 +3877,11 @@
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B117" s="22">
-        <f>C109-C110</f>
-        <v>400</v>
+        <v>78</v>
+      </c>
+      <c r="B117" s="17">
+        <f>B111-B110</f>
+        <v>107</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -3886,16 +3892,13 @@
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B118" s="33">
-        <f>B117/B116</f>
-        <v>3.7383177570093458</v>
-      </c>
-      <c r="C118" s="29">
-        <f>B117/B116</f>
-        <v>3.7383177570093458</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B118" s="22">
+        <f>C110-C111</f>
+        <v>400</v>
+      </c>
+      <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -3904,13 +3907,16 @@
     </row>
     <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B119" s="33">
-        <f ca="1">(SUM(C132:C137)-C107)/(TODAY()-(TODAY()-365))</f>
-        <v>7.397260273972603</v>
-      </c>
-      <c r="C119" s="29"/>
+        <f>B118/B117</f>
+        <v>3.7383177570093458</v>
+      </c>
+      <c r="C119" s="29">
+        <f>B118/B117</f>
+        <v>3.7383177570093458</v>
+      </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -3919,13 +3925,13 @@
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B120" s="2">
-        <f>D137</f>
-        <v>1.095</v>
-      </c>
-      <c r="C120" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="B120" s="33">
+        <f ca="1">(SUM(C133:C138)-C108)/(TODAY()-(TODAY()-365))</f>
+        <v>7.397260273972603</v>
+      </c>
+      <c r="C120" s="29"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -3934,9 +3940,12 @@
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B121" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="B121" s="2">
+        <f>D138</f>
+        <v>1.095</v>
+      </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -3945,61 +3954,51 @@
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A122" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="I122" s="2"/>
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>99</v>
-      </c>
-      <c r="B123" s="5">
-        <v>44211</v>
-      </c>
-      <c r="C123" s="29">
-        <v>500</v>
-      </c>
-      <c r="D123" s="2">
-        <f>0.561983*1.21</f>
-        <v>0.67999942999999996</v>
-      </c>
-      <c r="E123" s="2">
-        <f t="shared" ref="E123:E136" si="0">C123*D123</f>
-        <v>339.99971499999998</v>
+      <c r="B123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="10" t="s">
+      <c r="A124" t="s">
         <v>99</v>
       </c>
       <c r="B124" s="5">
-        <v>44252</v>
+        <v>44211</v>
       </c>
       <c r="C124" s="29">
         <v>500</v>
       </c>
       <c r="D124" s="2">
-        <f>0.570247*1.21</f>
-        <v>0.68999886999999993</v>
+        <f>0.561983*1.21</f>
+        <v>0.67999942999999996</v>
       </c>
       <c r="E124" s="2">
-        <f t="shared" si="0"/>
-        <v>344.99943499999995</v>
+        <f t="shared" ref="E124:E137" si="0">C124*D124</f>
+        <v>339.99971499999998</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -4010,18 +4009,18 @@
         <v>99</v>
       </c>
       <c r="B125" s="5">
-        <v>44308</v>
+        <v>44252</v>
       </c>
       <c r="C125" s="29">
         <v>500</v>
       </c>
       <c r="D125" s="2">
-        <f>0.595041*1.21</f>
-        <v>0.71999961000000001</v>
+        <f>0.570247*1.21</f>
+        <v>0.68999886999999993</v>
       </c>
       <c r="E125" s="2">
         <f t="shared" si="0"/>
-        <v>359.99980499999998</v>
+        <v>344.99943499999995</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -4032,18 +4031,18 @@
         <v>99</v>
       </c>
       <c r="B126" s="5">
-        <v>44468</v>
+        <v>44308</v>
       </c>
       <c r="C126" s="29">
         <v>500</v>
       </c>
       <c r="D126" s="2">
-        <f>0.652892*1.21</f>
-        <v>0.78999932000000006</v>
+        <f>0.595041*1.21</f>
+        <v>0.71999961000000001</v>
       </c>
       <c r="E126" s="2">
         <f t="shared" si="0"/>
-        <v>394.99966000000001</v>
+        <v>359.99980499999998</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -4054,18 +4053,18 @@
         <v>99</v>
       </c>
       <c r="B127" s="5">
-        <v>44551</v>
+        <v>44468</v>
       </c>
       <c r="C127" s="29">
         <v>500</v>
       </c>
       <c r="D127" s="2">
-        <f>0.694214*1.21</f>
-        <v>0.83999893999999997</v>
+        <f>0.652892*1.21</f>
+        <v>0.78999932000000006</v>
       </c>
       <c r="E127" s="2">
         <f t="shared" si="0"/>
-        <v>419.99946999999997</v>
+        <v>394.99966000000001</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -4076,18 +4075,18 @@
         <v>99</v>
       </c>
       <c r="B128" s="5">
-        <v>44589</v>
+        <v>44551</v>
       </c>
       <c r="C128" s="29">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="D128" s="2">
-        <f>0.768595*1.21</f>
-        <v>0.92999995000000002</v>
+        <f>0.694214*1.21</f>
+        <v>0.83999893999999997</v>
       </c>
       <c r="E128" s="2">
         <f t="shared" si="0"/>
-        <v>743.99995999999999</v>
+        <v>419.99946999999997</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -4098,17 +4097,18 @@
         <v>99</v>
       </c>
       <c r="B129" s="5">
-        <v>44676</v>
+        <v>44589</v>
       </c>
       <c r="C129" s="29">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D129" s="2">
-        <v>1.25</v>
+        <f>0.768595*1.21</f>
+        <v>0.92999995000000002</v>
       </c>
       <c r="E129" s="2">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>743.99995999999999</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -4119,17 +4119,17 @@
         <v>99</v>
       </c>
       <c r="B130" s="5">
-        <v>44841</v>
+        <v>44676</v>
       </c>
       <c r="C130" s="29">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D130" s="2">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="E130" s="2">
         <f t="shared" si="0"/>
-        <v>738</v>
+        <v>625</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -4140,17 +4140,17 @@
         <v>99</v>
       </c>
       <c r="B131" s="5">
-        <v>44905</v>
+        <v>44841</v>
       </c>
       <c r="C131" s="29">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D131" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="E131" s="2">
         <f t="shared" si="0"/>
-        <v>440.00000000000006</v>
+        <v>738</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -4161,17 +4161,17 @@
         <v>99</v>
       </c>
       <c r="B132" s="5">
-        <v>45291</v>
+        <v>44905</v>
       </c>
       <c r="C132" s="29">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D132" s="2">
-        <v>1.24</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E132" s="2">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>440.00000000000006</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -4182,19 +4182,17 @@
         <v>99</v>
       </c>
       <c r="B133" s="5">
-        <f ca="1">B114</f>
-        <v>45908.25</v>
+        <v>45291</v>
       </c>
       <c r="C133" s="29">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D133" s="2">
-        <f>B120</f>
-        <v>1.095</v>
+        <v>1.24</v>
       </c>
       <c r="E133" s="2">
         <f t="shared" si="0"/>
-        <v>547.5</v>
+        <v>248</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -4205,17 +4203,19 @@
         <v>99</v>
       </c>
       <c r="B134" s="5">
-        <v>45175</v>
+        <f ca="1">B115</f>
+        <v>45951.25</v>
       </c>
       <c r="C134" s="29">
         <v>500</v>
       </c>
       <c r="D134" s="2">
-        <v>0.95</v>
+        <f>B121</f>
+        <v>1.095</v>
       </c>
       <c r="E134" s="2">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>547.5</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -4226,17 +4226,17 @@
         <v>99</v>
       </c>
       <c r="B135" s="5">
-        <v>45275</v>
+        <v>45175</v>
       </c>
       <c r="C135" s="29">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="D135" s="2">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="E135" s="2">
         <f t="shared" si="0"/>
-        <v>728</v>
+        <v>475</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -4247,17 +4247,17 @@
         <v>99</v>
       </c>
       <c r="B136" s="5">
-        <v>45359</v>
+        <v>45275</v>
       </c>
       <c r="C136" s="29">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="D136" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="E136" s="2">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>728</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -4268,17 +4268,17 @@
         <v>99</v>
       </c>
       <c r="B137" s="5">
-        <v>45352</v>
+        <v>45359</v>
       </c>
       <c r="C137" s="29">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D137" s="2">
-        <v>1.095</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E137" s="2">
-        <f t="shared" ref="E137" si="1">C137*D137</f>
-        <v>657</v>
+        <f t="shared" si="0"/>
+        <v>575</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -4289,17 +4289,17 @@
         <v>99</v>
       </c>
       <c r="B138" s="5">
-        <v>45331</v>
+        <v>45352</v>
       </c>
       <c r="C138" s="29">
         <v>600</v>
       </c>
       <c r="D138" s="2">
-        <v>0.99</v>
+        <v>1.095</v>
       </c>
       <c r="E138" s="2">
-        <f t="shared" ref="E138" si="2">C138*D138</f>
-        <v>594</v>
+        <f t="shared" ref="E138" si="1">C138*D138</f>
+        <v>657</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -4310,17 +4310,17 @@
         <v>99</v>
       </c>
       <c r="B139" s="5">
-        <v>45667</v>
+        <v>45331</v>
       </c>
       <c r="C139" s="29">
         <v>600</v>
       </c>
       <c r="D139" s="2">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="E139" s="2">
-        <f t="shared" ref="E139" si="3">C139*D139</f>
-        <v>624</v>
+        <f t="shared" ref="E139" si="2">C139*D139</f>
+        <v>594</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -4331,40 +4331,46 @@
         <v>99</v>
       </c>
       <c r="B140" s="5">
-        <v>45737</v>
+        <v>45667</v>
       </c>
       <c r="C140" s="29">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="D140" s="2">
         <v>1.04</v>
       </c>
       <c r="E140" s="2">
-        <f t="shared" ref="E140" si="4">C140*D140</f>
-        <v>676</v>
+        <f t="shared" ref="E140" si="3">C140*D140</f>
+        <v>624</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="I140" s="2"/>
     </row>
     <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="10"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B141" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C141" s="29">
+        <v>650</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="E141" s="2">
+        <f t="shared" ref="E141" si="4">C141*D141</f>
+        <v>676</v>
+      </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="I141" s="2"/>
     </row>
     <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B142" s="2">
-        <f>(746.3)/(5)</f>
-        <v>149.26</v>
-      </c>
+      <c r="A142" s="10"/>
+      <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -4374,10 +4380,11 @@
     </row>
     <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B143" s="2">
-        <v>69.680000000000007</v>
+        <f>(746.3)/(5)</f>
+        <v>149.26</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -4387,7 +4394,12 @@
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="2"/>
+      <c r="A144" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B144" s="2">
+        <v>69.680000000000007</v>
+      </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -4395,126 +4407,135 @@
       <c r="G144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="10"/>
+    <row r="145" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="10" t="s">
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="10"/>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B146" s="24"/>
-    </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="5">
+      <c r="B147" s="24"/>
+    </row>
+    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="5">
         <v>44872</v>
       </c>
-      <c r="B147" s="31">
+      <c r="B148" s="31">
         <v>58.07</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="5">
+    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="5">
         <v>44876</v>
       </c>
-      <c r="B148" s="31">
+      <c r="B149" s="31">
         <v>63.26</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="5">
+    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="5">
         <v>44880</v>
       </c>
-      <c r="B149" s="31">
+      <c r="B150" s="31">
         <v>75.47</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="5">
+    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="5">
         <v>44881</v>
       </c>
-      <c r="B150" s="31">
+      <c r="B151" s="31">
         <v>52.61</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="5">
-        <v>44886</v>
-      </c>
-      <c r="B151" s="31">
-        <v>61.6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>44886</v>
       </c>
       <c r="B152" s="31">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="5">
+        <v>44886</v>
+      </c>
+      <c r="B153" s="31">
         <v>24.14</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="5">
+    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="5">
         <v>44892</v>
       </c>
-      <c r="B153" s="31">
+      <c r="B154" s="31">
         <v>60.61</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="5">
+    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="5">
         <v>44895</v>
       </c>
-      <c r="B154" s="31">
+      <c r="B155" s="31">
         <v>59.02</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="5"/>
-      <c r="C155" s="31"/>
-    </row>
-    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="10" t="s">
+    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B156" s="5"/>
+      <c r="C156" s="31"/>
+    </row>
+    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B156" s="31">
-        <f>SUM(B147:B154)</f>
+      <c r="B157" s="31">
+        <f>SUM(B148:B155)</f>
         <v>454.78000000000003</v>
       </c>
-      <c r="C156" s="31"/>
-    </row>
-    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="10" t="s">
+      <c r="C157" s="31"/>
+    </row>
+    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B157" s="31">
-        <f>B156/8</f>
+      <c r="B158" s="31">
+        <f>B157/8</f>
         <v>56.847500000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="10" t="s">
+    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B158" s="32">
-        <f>B156-B157</f>
+      <c r="B159" s="32">
+        <f>B157-B158</f>
         <v>397.9325</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="10" t="s">
+    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="31">
-        <f>B157</f>
+      <c r="B160" s="31">
+        <f>B158</f>
         <v>56.847500000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>194</v>
-      </c>
-      <c r="B162" s="1">
+    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>193</v>
+      </c>
+      <c r="B163" s="1">
         <f>(70*3)+250</f>
         <v>460</v>
       </c>
@@ -4523,7 +4544,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B119" formulaRange="1"/>
+    <ignoredError sqref="B120" formulaRange="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -5015,10 +5036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359E7A64-9B40-4277-B45B-9758224AFFD3}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5030,16 +5051,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
         <v>196</v>
-      </c>
-      <c r="D1" t="s">
-        <v>197</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -5047,7 +5068,7 @@
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="1">
         <v>87.13</v>
@@ -5065,7 +5086,7 @@
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" s="1">
         <v>79.540000000000006</v>
@@ -5083,7 +5104,7 @@
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="1">
         <v>8.07</v>
@@ -5101,7 +5122,7 @@
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="1">
         <f>SUM(E2:E3)*$B$28</f>
@@ -5120,7 +5141,7 @@
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="1">
         <f>SUM(E2:E3)*$B$29</f>
@@ -5139,7 +5160,7 @@
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="1">
         <f>SUM(E2:E3)*$B$30</f>
@@ -5158,7 +5179,7 @@
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="1">
         <f>SUM(E2:E3)*$B$31</f>
@@ -5177,7 +5198,7 @@
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="1">
         <f>SUM(E2:E3)*$B$32</f>
@@ -5196,7 +5217,7 @@
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="1">
         <f>SUM(E2:E4)*B33</f>
@@ -5215,7 +5236,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="1">
         <v>87.13</v>
@@ -5233,7 +5254,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" s="1">
         <v>79.540000000000006</v>
@@ -5251,7 +5272,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="1">
         <v>8.07</v>
@@ -5269,7 +5290,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14" s="1">
         <f>SUM(E11:E12)*$B$28</f>
@@ -5288,7 +5309,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="1">
         <f>SUM(E12:E13)*$B$29</f>
@@ -5307,7 +5328,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="1">
         <f>SUM(E11:E12)*$B$30</f>
@@ -5326,7 +5347,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B17" s="1">
         <f>SUM(E11:E12)*$B$31</f>
@@ -5345,7 +5366,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B18" s="1">
         <f>SUM(E11:E12)*$B$32</f>
@@ -5364,7 +5385,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" s="1">
         <f>SUM(E11:E13)*$B$33</f>
@@ -5383,7 +5404,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="1"/>
       <c r="E20" s="1">
@@ -5393,7 +5414,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="1">
         <f>SUM(E2:E4)</f>
@@ -5402,7 +5423,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26">
         <v>4254.8999999999996</v>
@@ -5410,7 +5431,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27">
         <f>70000/14</f>
@@ -5419,7 +5440,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B28" s="54">
         <v>4.7E-2</v>
@@ -5427,7 +5448,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="54">
         <v>1.2999999999999999E-3</v>
@@ -5435,7 +5456,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B30" s="54">
         <v>3.8400000000000001E-4</v>
@@ -5443,7 +5464,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31" s="54">
         <v>1E-3</v>
@@ -5451,7 +5472,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B32" s="54">
         <v>1.55E-2</v>
@@ -5459,7 +5480,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B33" s="54">
         <v>0.223</v>
@@ -5467,7 +5488,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B34" s="1">
         <f>((B27/6)-((B27/6)*B33))*2</f>
@@ -5476,7 +5497,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B35" s="54">
         <v>0.16667000000000001</v>
@@ -5484,7 +5505,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36">
         <f>B35*((5000/30)*26)</f>
@@ -5493,7 +5514,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B37">
         <f>B35*B27</f>
@@ -5502,11 +5523,17 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B38">
         <f>SUM(B36:B37)</f>
         <v>1555.5866666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <f>((3730/6)/30)*55</f>
+        <v>1139.7222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -5523,7 +5550,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5542,54 +5569,54 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="38">
         <v>70000</v>
@@ -5642,7 +5669,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="38">
         <v>70000</v>
@@ -5694,7 +5721,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="32">
         <f>M3-M2</f>
@@ -5707,18 +5734,18 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="52">
         <f>(M2*14)+O2</f>
@@ -5731,7 +5758,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="52">
         <f>(M3*14)+O3</f>
@@ -5744,7 +5771,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13" s="31">
         <v>1.45</v>
@@ -5753,7 +5780,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="32">
         <f>B13*45</f>
@@ -5763,7 +5790,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -5771,7 +5798,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="50">
         <f>100*(45/B15)</f>
@@ -5826,7 +5853,7 @@
         <v>142</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F1" s="44" t="s">
         <v>143</v>
@@ -5840,13 +5867,13 @@
         <v>144</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F2" s="56">
         <v>3.75</v>
@@ -5860,13 +5887,13 @@
         <v>144</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D3" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="55" t="s">
         <v>227</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>229</v>
       </c>
       <c r="F3" s="41">
         <v>6.21</v>
@@ -5880,13 +5907,13 @@
         <v>144</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F4" s="41">
         <v>6.58</v>
@@ -5900,13 +5927,13 @@
         <v>144</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F5" s="41">
         <v>8.41</v>
@@ -5920,13 +5947,13 @@
         <v>144</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F6" s="41">
         <v>10.51</v>
@@ -5940,13 +5967,13 @@
         <v>144</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F7" s="41">
         <v>7.69</v>
@@ -5960,13 +5987,13 @@
         <v>144</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F8" s="41">
         <v>20.8</v>
@@ -5980,13 +6007,13 @@
         <v>144</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F9" s="41">
         <f>19.5*3</f>
@@ -6001,13 +6028,13 @@
         <v>144</v>
       </c>
       <c r="C10" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="D10" s="55" t="s">
-        <v>237</v>
-      </c>
       <c r="E10" s="55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F10" s="41">
         <v>40</v>
@@ -6021,13 +6048,13 @@
         <v>144</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F11" s="41">
         <v>22</v>
@@ -6041,13 +6068,13 @@
         <v>144</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F12" s="41">
         <v>20.84</v>
@@ -6061,13 +6088,13 @@
         <v>144</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F13" s="41">
         <v>33.11</v>
@@ -6355,7 +6382,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Gastos_ingresos_calculados_2025.xlsx
+++ b/Gastos_ingresos_calculados_2025.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Allfunds_CB\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CDF6FC-2AAC-47D2-9AF1-524DBB896F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC37E0-A568-495C-9447-04A0142A2423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gastos_2025" sheetId="2" r:id="rId1"/>
@@ -2039,10 +2039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2064,7 +2065,7 @@
         <v>151</v>
       </c>
       <c r="B1" s="8">
-        <v>2169.85</v>
+        <v>1710.68</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2078,8 +2079,8 @@
         <v>152</v>
       </c>
       <c r="B2" s="8">
-        <f>11545.36-5000</f>
-        <v>6545.3600000000006</v>
+        <f>11493.39-5000</f>
+        <v>6493.3899999999994</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2296,10 +2297,11 @@
       </c>
       <c r="B17" s="18">
         <f>(150*3)-C17</f>
+        <v>150</v>
+      </c>
+      <c r="C17" s="18">
+        <f>150*2</f>
         <v>300</v>
-      </c>
-      <c r="C17" s="18">
-        <v>150</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="2"/>
@@ -2313,11 +2315,11 @@
       </c>
       <c r="B18" s="18">
         <f>(30*4+70*3)-C18</f>
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="C18" s="18">
-        <f>70*2</f>
-        <v>140</v>
+        <f>70*3</f>
+        <v>210</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="2"/>
@@ -2662,10 +2664,10 @@
       </c>
       <c r="B39" s="28">
         <f>300-C39</f>
+        <v>300</v>
+      </c>
+      <c r="C39" s="28">
         <v>0</v>
-      </c>
-      <c r="C39" s="28">
-        <v>300</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="2"/>
@@ -2779,11 +2781,11 @@
       </c>
       <c r="B46" s="8">
         <f>SUM(B12:B45)</f>
-        <v>1039.2633333333333</v>
+        <v>1119.2633333333333</v>
       </c>
       <c r="C46" s="8">
         <f>SUM(C12:C30)</f>
-        <v>6511.4800000000005</v>
+        <v>6731.4800000000005</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="2"/>
@@ -2806,7 +2808,7 @@
       </c>
       <c r="B48" s="9">
         <f>SUM(B1:B3)-B46</f>
-        <v>7675.9466666666676</v>
+        <v>7084.8066666666664</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="2"/>
@@ -2827,7 +2829,7 @@
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="str">
         <f ca="1">"DEPOSITO EN LITROS A FECHA: "&amp;TEXT(TODAY(),"dd-MM-aaaa")</f>
-        <v>DEPOSITO EN LITROS A FECHA: 07-08-2025</v>
+        <v>DEPOSITO EN LITROS A FECHA: 13-08-2025</v>
       </c>
       <c r="B50" s="17">
         <f>C111</f>
@@ -3857,7 +3859,7 @@
       </c>
       <c r="B115" s="21">
         <f ca="1">TODAY()+B52-5</f>
-        <v>45951.25</v>
+        <v>45957.25</v>
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="2"/>
@@ -4204,7 +4206,7 @@
       </c>
       <c r="B134" s="5">
         <f ca="1">B115</f>
-        <v>45951.25</v>
+        <v>45957.25</v>
       </c>
       <c r="C134" s="29">
         <v>500</v>
@@ -4552,6 +4554,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Hoja10"/>
   <dimension ref="A1:U100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5036,6 +5039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359E7A64-9B40-4277-B45B-9758224AFFD3}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -5547,6 +5551,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5822,6 +5827,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6379,6 +6385,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6491,6 +6498,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6703,6 +6711,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -7113,6 +7122,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Hoja8"/>
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
@@ -9318,6 +9328,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Gastos_ingresos_calculados_2025.xlsx
+++ b/Gastos_ingresos_calculados_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Allfunds_CB\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC37E0-A568-495C-9447-04A0142A2423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963BFBED-11BB-426D-8885-AF267C42F89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gastos_2025" sheetId="2" r:id="rId1"/>
@@ -44,6 +44,8 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={729D0681-E5F2-4E0A-982D-98487AF7A233}</author>
+    <author>tc={B4A7A13B-470E-43E4-BDB5-188D0196D6AF}</author>
     <author>Charly</author>
     <author>Charly B</author>
     <author>tc={16A2CD11-91B5-4ED0-A53A-C59456EFB1B2}</author>
@@ -60,10 +62,27 @@
     <author>tc={7B4B3139-9C41-4782-9939-5C1107569128}</author>
     <author>tc={9B84BFA2-6B57-48E1-81B2-49D28C343525}</author>
     <author>tc={DCA9F100-944C-49CA-BE4F-42E2DC0607F4}</author>
+    <author>tc={456ABF91-7098-4F3A-BF21-43F075017102}</author>
     <author>tc={DD2FEDF0-3221-4FF5-8FE7-298256927858}</author>
   </authors>
   <commentList>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{729D0681-E5F2-4E0A-982D-98487AF7A233}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Pagado 3.000€, condonan 10.000€ de deuda, y esto es lo que falta a día 8/9</t>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{B4A7A13B-470E-43E4-BDB5-188D0196D6AF}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Facturación 22 de Agosto</t>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="C20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="D20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B21" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="C21" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="D21" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -180,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="D25" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="B28" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -202,7 +221,7 @@
     Pago donacion: 130€ + Pago material: 84€ + Aux. Inglés Noa: 7€</t>
       </text>
     </comment>
-    <comment ref="C29" authorId="3" shapeId="0" xr:uid="{63F0D1F1-B9A3-4C41-94E3-919EA4B3D465}">
+    <comment ref="C30" authorId="5" shapeId="0" xr:uid="{63F0D1F1-B9A3-4C41-94E3-919EA4B3D465}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -210,7 +229,7 @@
     Vacuna rabia+leishmania</t>
       </text>
     </comment>
-    <comment ref="C30" authorId="4" shapeId="0" xr:uid="{D239227B-ECE8-4B4D-8CA5-CD85225F55F6}">
+    <comment ref="C31" authorId="6" shapeId="0" xr:uid="{D239227B-ECE8-4B4D-8CA5-CD85225F55F6}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -218,7 +237,7 @@
     Revisar fecha de pago en Febrero</t>
       </text>
     </comment>
-    <comment ref="B31" authorId="5" shapeId="0" xr:uid="{36D9CB0B-B078-42C1-AA1D-DCFDD2515750}">
+    <comment ref="B32" authorId="7" shapeId="0" xr:uid="{36D9CB0B-B078-42C1-AA1D-DCFDD2515750}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -226,7 +245,7 @@
     1º cuota: 13/5, 2º cuota: 13/6, 3º cuota: 13/7</t>
       </text>
     </comment>
-    <comment ref="B32" authorId="6" shapeId="0" xr:uid="{6B1573CA-7DB3-4CFC-8EE8-E90A359009E4}">
+    <comment ref="B33" authorId="8" shapeId="0" xr:uid="{6B1573CA-7DB3-4CFC-8EE8-E90A359009E4}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -236,7 +255,7 @@
 3º cuota: 6/10</t>
       </text>
     </comment>
-    <comment ref="C35" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="C36" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -244,15 +263,15 @@
     Primer pago 21/06</t>
       </text>
     </comment>
-    <comment ref="C36" authorId="8" shapeId="0" xr:uid="{1FD83A3F-4D00-4720-B574-BF1207731575}">
+    <comment ref="C37" authorId="10" shapeId="0" xr:uid="{1FD83A3F-4D00-4720-B574-BF1207731575}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
-    Día 1-5 de cada mes, 18 cuotas desde 1/10, última cuota: 1 de Marzo de 2026. Pagado 9 cuotas= 132,22*9 = 1189,98€</t>
+    Día 1-5 de cada mes, 18 cuotas desde 1/10, última cuota: 1 de Marzo de 2026. Pagado 9 cuotas= 132,22*11 = 1454,42</t>
       </text>
     </comment>
-    <comment ref="C37" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="C38" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -260,7 +279,7 @@
     Regalos abus, regalos sobris, regalos ahijado y amigo invisible, regalos hijos y amigos invisibles/padrinos y regalos Cris.</t>
       </text>
     </comment>
-    <comment ref="A38" authorId="10" shapeId="0" xr:uid="{792F21A8-A42C-46A8-8E43-C1FA44D530EC}">
+    <comment ref="A39" authorId="12" shapeId="0" xr:uid="{792F21A8-A42C-46A8-8E43-C1FA44D530EC}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -268,7 +287,7 @@
     Primera cuota, 30/3, 12 meses, 30/3/26, 65€ x 12 = 780€</t>
       </text>
     </comment>
-    <comment ref="C39" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="C41" authorId="13" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -276,7 +295,7 @@
     Limpieza hecha el 16/5/23 después de 2 años.</t>
       </text>
     </comment>
-    <comment ref="A42" authorId="12" shapeId="0" xr:uid="{606BF597-6B03-4431-BD52-2E6A88997EE1}">
+    <comment ref="A44" authorId="14" shapeId="0" xr:uid="{606BF597-6B03-4431-BD52-2E6A88997EE1}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -284,7 +303,7 @@
     Del sábado 12/7 al jueves 17/7, 460€ estimado de gasolina + comida</t>
       </text>
     </comment>
-    <comment ref="C42" authorId="13" shapeId="0" xr:uid="{7B4B3139-9C41-4782-9939-5C1107569128}">
+    <comment ref="C44" authorId="15" shapeId="0" xr:uid="{7B4B3139-9C41-4782-9939-5C1107569128}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -292,7 +311,7 @@
     Pagado 107,49€, pagar 429,92€ el 29/6</t>
       </text>
     </comment>
-    <comment ref="A43" authorId="14" shapeId="0" xr:uid="{9B84BFA2-6B57-48E1-81B2-49D28C343525}">
+    <comment ref="A45" authorId="16" shapeId="0" xr:uid="{9B84BFA2-6B57-48E1-81B2-49D28C343525}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -300,7 +319,7 @@
     Del domingo 20/7 al domingo 27/7, 460€ estimado de gastos</t>
       </text>
     </comment>
-    <comment ref="C43" authorId="15" shapeId="0" xr:uid="{DCA9F100-944C-49CA-BE4F-42E2DC0607F4}">
+    <comment ref="C45" authorId="17" shapeId="0" xr:uid="{DCA9F100-944C-49CA-BE4F-42E2DC0607F4}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -308,7 +327,15 @@
     El resto: 680€ a la llegada el domingo 20/7</t>
       </text>
     </comment>
-    <comment ref="B143" authorId="16" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="C48" authorId="18" shapeId="0" xr:uid="{456ABF91-7098-4F3A-BF21-43F075017102}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Estimación gasto material Bricomart con lavabo y vater nuestro</t>
+      </text>
+    </comment>
+    <comment ref="B146" authorId="19" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -359,7 +386,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="249">
   <si>
     <t>IVA</t>
   </si>
@@ -703,9 +730,6 @@
     <t>LITROS/DIA ABSOLUTO</t>
   </si>
   <si>
-    <t>VACACIONES</t>
-  </si>
-  <si>
     <t>RENTA</t>
   </si>
   <si>
@@ -1097,6 +1121,18 @@
   </si>
   <si>
     <t>VACACIONES GALICIA</t>
+  </si>
+  <si>
+    <t>REHABILITACION</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD CRIS</t>
+  </si>
+  <si>
+    <t>GASTOS COLEGIO</t>
+  </si>
+  <si>
+    <t>GASTOS MATERIAL CASA</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1158,7 @@
     <numFmt numFmtId="177" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
     <numFmt numFmtId="178" formatCode="#,##0\ [$€-C0A]"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1231,6 +1267,12 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1987,51 +2029,60 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C12" dT="2025-09-08T11:53:01.18" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{729D0681-E5F2-4E0A-982D-98487AF7A233}">
+    <text>Pagado 3.000€, condonan 10.000€ de deuda, y esto es lo que falta a día 8/9</text>
+  </threadedComment>
+  <threadedComment ref="B16" dT="2025-09-03T08:59:19.02" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{B4A7A13B-470E-43E4-BDB5-188D0196D6AF}">
+    <text>Facturación 22 de Agosto</text>
+  </threadedComment>
   <threadedComment ref="B28" dT="2022-12-02T10:11:47.51" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{16A2CD11-91B5-4ED0-A53A-C59456EFB1B2}">
     <text>Pago donacion: 130€ + Pago material: 84€ + Aux. Inglés Noa: 7€</text>
   </threadedComment>
-  <threadedComment ref="C29" dT="2025-05-19T07:16:43.66" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{63F0D1F1-B9A3-4C41-94E3-919EA4B3D465}">
+  <threadedComment ref="C30" dT="2025-05-19T07:16:43.66" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{63F0D1F1-B9A3-4C41-94E3-919EA4B3D465}">
     <text>Vacuna rabia+leishmania</text>
   </threadedComment>
-  <threadedComment ref="C30" dT="2025-05-19T07:15:55.70" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{D239227B-ECE8-4B4D-8CA5-CD85225F55F6}">
+  <threadedComment ref="C31" dT="2025-05-19T07:15:55.70" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{D239227B-ECE8-4B4D-8CA5-CD85225F55F6}">
     <text>Revisar fecha de pago en Febrero</text>
   </threadedComment>
-  <threadedComment ref="B31" dT="2025-07-01T09:10:50.24" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{36D9CB0B-B078-42C1-AA1D-DCFDD2515750}">
+  <threadedComment ref="B32" dT="2025-07-01T09:10:50.24" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{36D9CB0B-B078-42C1-AA1D-DCFDD2515750}">
     <text>1º cuota: 13/5, 2º cuota: 13/6, 3º cuota: 13/7</text>
   </threadedComment>
-  <threadedComment ref="B32" dT="2025-07-01T09:11:30.59" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{6B1573CA-7DB3-4CFC-8EE8-E90A359009E4}">
+  <threadedComment ref="B33" dT="2025-07-01T09:11:30.59" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{6B1573CA-7DB3-4CFC-8EE8-E90A359009E4}">
     <text>1º cuota: 6/8
 2º cuota: 6/9
 3º cuota: 6/10</text>
   </threadedComment>
-  <threadedComment ref="C35" dT="2022-06-06T14:39:18.34" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{5AE7D469-F209-45F7-9CEF-DC168E80F1EF}">
+  <threadedComment ref="C36" dT="2022-06-06T14:39:18.34" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{5AE7D469-F209-45F7-9CEF-DC168E80F1EF}">
     <text>Primer pago 21/06</text>
   </threadedComment>
-  <threadedComment ref="C36" dT="2025-06-09T08:14:42.39" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{1FD83A3F-4D00-4720-B574-BF1207731575}">
-    <text>Día 1-5 de cada mes, 18 cuotas desde 1/10, última cuota: 1 de Marzo de 2026. Pagado 9 cuotas= 132,22*9 = 1189,98€</text>
+  <threadedComment ref="C37" dT="2025-06-09T08:14:42.39" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{1FD83A3F-4D00-4720-B574-BF1207731575}">
+    <text>Día 1-5 de cada mes, 18 cuotas desde 1/10, última cuota: 1 de Marzo de 2026. Pagado 9 cuotas= 132,22*11 = 1454,42</text>
   </threadedComment>
-  <threadedComment ref="C37" dT="2025-01-17T18:11:00.46" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{88F70749-3707-4B8B-B04C-B2D930BA86CD}">
+  <threadedComment ref="C38" dT="2025-01-17T18:11:00.46" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{88F70749-3707-4B8B-B04C-B2D930BA86CD}">
     <text>Regalos abus, regalos sobris, regalos ahijado y amigo invisible, regalos hijos y amigos invisibles/padrinos y regalos Cris.</text>
   </threadedComment>
-  <threadedComment ref="A38" dT="2025-05-28T08:44:28.16" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{792F21A8-A42C-46A8-8E43-C1FA44D530EC}">
+  <threadedComment ref="A39" dT="2025-05-28T08:44:28.16" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{792F21A8-A42C-46A8-8E43-C1FA44D530EC}">
     <text>Primera cuota, 30/3, 12 meses, 30/3/26, 65€ x 12 = 780€</text>
   </threadedComment>
-  <threadedComment ref="C39" dT="2023-05-17T13:18:01.51" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{EE57CC3A-2DFD-48B0-A087-D8F7A1E91E0A}">
+  <threadedComment ref="C41" dT="2023-05-17T13:18:01.51" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{EE57CC3A-2DFD-48B0-A087-D8F7A1E91E0A}">
     <text>Limpieza hecha el 16/5/23 después de 2 años.</text>
   </threadedComment>
-  <threadedComment ref="A42" dT="2025-05-28T08:13:00.88" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{606BF597-6B03-4431-BD52-2E6A88997EE1}">
+  <threadedComment ref="A44" dT="2025-05-28T08:13:00.88" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{606BF597-6B03-4431-BD52-2E6A88997EE1}">
     <text>Del sábado 12/7 al jueves 17/7, 460€ estimado de gasolina + comida</text>
   </threadedComment>
-  <threadedComment ref="C42" dT="2025-05-19T07:21:03.47" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{7B4B3139-9C41-4782-9939-5C1107569128}">
+  <threadedComment ref="C44" dT="2025-05-19T07:21:03.47" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{7B4B3139-9C41-4782-9939-5C1107569128}">
     <text>Pagado 107,49€, pagar 429,92€ el 29/6</text>
   </threadedComment>
-  <threadedComment ref="A43" dT="2025-05-28T08:13:20.71" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{9B84BFA2-6B57-48E1-81B2-49D28C343525}">
+  <threadedComment ref="A45" dT="2025-05-28T08:13:20.71" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{9B84BFA2-6B57-48E1-81B2-49D28C343525}">
     <text>Del domingo 20/7 al domingo 27/7, 460€ estimado de gastos</text>
   </threadedComment>
-  <threadedComment ref="C43" dT="2025-05-19T07:21:34.30" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{DCA9F100-944C-49CA-BE4F-42E2DC0607F4}">
+  <threadedComment ref="C45" dT="2025-05-19T07:21:34.30" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{DCA9F100-944C-49CA-BE4F-42E2DC0607F4}">
     <text>El resto: 680€ a la llegada el domingo 20/7</text>
   </threadedComment>
-  <threadedComment ref="B143" dT="2022-06-06T13:27:53.22" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{DD2FEDF0-3221-4FF5-8FE7-298256927858}">
+  <threadedComment ref="C48" dT="2025-09-15T12:51:08.54" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{456ABF91-7098-4F3A-BF21-43F075017102}">
+    <text>Estimación gasto material Bricomart con lavabo y vater nuestro</text>
+  </threadedComment>
+  <threadedComment ref="B146" dT="2022-06-06T13:27:53.22" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{DD2FEDF0-3221-4FF5-8FE7-298256927858}">
     <text>Primera cuota el el 21/06, última en octubre</text>
   </threadedComment>
 </ThreadedComments>
@@ -2040,15 +2091,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.54296875" customWidth="1"/>
     <col min="3" max="3" width="29.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.26953125" bestFit="1" customWidth="1"/>
@@ -2062,10 +2113,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="8">
-        <v>1710.68</v>
+        <v>1580.43</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2076,11 +2127,11 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="8">
-        <f>11493.39-5000</f>
-        <v>6493.3899999999994</v>
+        <f>11272.51 -5000</f>
+        <v>6272.51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2107,7 +2158,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="25">
         <v>0</v>
@@ -2135,7 +2186,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="8">
         <v>4300</v>
@@ -2149,7 +2200,7 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="34"/>
@@ -2161,7 +2212,7 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="8">
         <v>56.23</v>
@@ -2199,7 +2250,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="2"/>
@@ -2215,7 +2266,8 @@
         <v>0</v>
       </c>
       <c r="C12" s="18">
-        <v>3000</v>
+        <f>25000-10000-3000</f>
+        <v>12000</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="2"/>
@@ -2280,10 +2332,10 @@
       </c>
       <c r="B16" s="18">
         <f>85.46-C16</f>
+        <v>85.46</v>
+      </c>
+      <c r="C16" s="18">
         <v>0</v>
-      </c>
-      <c r="C16" s="18">
-        <v>85.46</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="2"/>
@@ -2296,8 +2348,8 @@
         <v>55</v>
       </c>
       <c r="B17" s="18">
-        <f>(150*3)-C17</f>
-        <v>150</v>
+        <f>(150*4)-C17</f>
+        <v>300</v>
       </c>
       <c r="C17" s="18">
         <f>150*2</f>
@@ -2315,11 +2367,11 @@
       </c>
       <c r="B18" s="18">
         <f>(30*4+70*3)-C18</f>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C18" s="18">
-        <f>70*3</f>
-        <v>210</v>
+        <f>(70*3)+(15*2)</f>
+        <v>240</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="2"/>
@@ -2474,14 +2526,14 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="18">
         <f>(130+7)*2+((85*4)/12)-C28</f>
-        <v>3.3333333333303017E-3</v>
+        <v>302.33333333333331</v>
       </c>
       <c r="C28" s="18">
-        <v>302.33</v>
+        <v>0</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="2"/>
@@ -2491,31 +2543,32 @@
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="28">
+        <v>247</v>
+      </c>
+      <c r="B29" s="18">
+        <f>(100+42)-C29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="28">
-        <f>40+80</f>
-        <v>120</v>
-      </c>
-      <c r="D29" s="28"/>
+      <c r="C29" s="18">
+        <f>100+42</f>
+        <v>142</v>
+      </c>
+      <c r="D29" s="18"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B30" s="28">
         <v>0</v>
       </c>
       <c r="C30" s="28">
-        <f>D30</f>
-        <v>0</v>
+        <f>40+80</f>
+        <v>120</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="2"/>
@@ -2525,14 +2578,14 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="B31" s="28">
         <v>0</v>
       </c>
       <c r="C31" s="28">
-        <f>(199.84-49.96)+(194.16-48.64)+(194.16-48.54)</f>
-        <v>441.02</v>
+        <f>D31</f>
+        <v>0</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="2"/>
@@ -2542,14 +2595,14 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B32" s="28">
         <v>0</v>
       </c>
       <c r="C32" s="28">
-        <f>(345.45)/3</f>
-        <v>115.14999999999999</v>
+        <f>(199.84-49.96)+(194.16-48.64)+(194.16-48.54)</f>
+        <v>441.02</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="2"/>
@@ -2559,15 +2612,14 @@
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B33" s="28">
-        <f>(63.61+61.38+87.95)-C33</f>
         <v>0</v>
       </c>
       <c r="C33" s="28">
-        <f>63.61+61.38+87.95</f>
-        <v>212.94</v>
+        <f>((345.45)/3)*2</f>
+        <v>230.29999999999998</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="2"/>
@@ -2577,14 +2629,15 @@
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B34" s="28">
-        <f>E139-C34</f>
+        <f>(63.61+61.38+87.95)-C34</f>
         <v>0</v>
       </c>
       <c r="C34" s="28">
-        <v>594</v>
+        <f>63.61+61.38+87.95</f>
+        <v>212.94</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="2"/>
@@ -2594,11 +2647,11 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B35" s="28">
-        <f>B143</f>
-        <v>149.26</v>
+        <f>E142-C35</f>
+        <v>594</v>
       </c>
       <c r="C35" s="28">
         <v>0</v>
@@ -2611,14 +2664,14 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="B36" s="28">
-        <f>132.22-C36</f>
+        <f>B146</f>
+        <v>149.26</v>
+      </c>
+      <c r="C36" s="28">
         <v>0</v>
-      </c>
-      <c r="C36" s="28">
-        <v>132.22</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="2"/>
@@ -2628,15 +2681,16 @@
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B37" s="28">
+        <f>132.22-C37</f>
         <v>0</v>
       </c>
       <c r="C37" s="28">
-        <v>150</v>
-      </c>
-      <c r="D37" s="48"/>
+        <v>132.22</v>
+      </c>
+      <c r="D37" s="28"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2644,15 +2698,15 @@
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="B38" s="28">
-        <f>65.17-C38</f>
         <v>0</v>
       </c>
       <c r="C38" s="28">
-        <v>65.17</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D38" s="48"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2660,67 +2714,66 @@
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="B39" s="28">
-        <f>300-C39</f>
-        <v>300</v>
+        <f>65.17-C39</f>
+        <v>0</v>
       </c>
       <c r="C39" s="28">
-        <v>0</v>
-      </c>
-      <c r="D39" s="48"/>
+        <v>65.17</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="B40" s="28">
+        <f>23.3335*15-C40</f>
         <v>0</v>
       </c>
       <c r="C40" s="28">
-        <f>1069.2+200</f>
-        <v>1269.2</v>
-      </c>
-      <c r="D40" s="28"/>
+        <f>23.3335*15</f>
+        <v>350.0025</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="B41" s="28">
+        <f>300-C41</f>
+        <v>300</v>
+      </c>
+      <c r="C41" s="28">
         <v>0</v>
       </c>
-      <c r="C41" s="28">
-        <f>155+83.32+20</f>
-        <v>258.32</v>
-      </c>
-      <c r="D41" s="28"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B42" s="28">
         <v>0</v>
       </c>
       <c r="C42" s="28">
-        <f>(107.49+429.92)+B163</f>
-        <v>997.41</v>
-      </c>
-      <c r="D42" s="53"/>
+        <f>155+83.32+20</f>
+        <v>258.32</v>
+      </c>
+      <c r="D42" s="28"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2728,14 +2781,13 @@
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="B43" s="28">
+        <v>150</v>
+      </c>
+      <c r="C43" s="28">
         <v>0</v>
-      </c>
-      <c r="C43" s="28">
-        <f>(100+680)+B163</f>
-        <v>1240</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="2"/>
@@ -2743,31 +2795,33 @@
       <c r="G43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="B44" s="28">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C44" s="28">
-        <v>0</v>
-      </c>
-      <c r="D44" s="28"/>
+        <f>(107.49+429.92)+B166</f>
+        <v>997.41</v>
+      </c>
+      <c r="D44" s="53"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="B45" s="28">
         <v>0</v>
       </c>
       <c r="C45" s="28">
-        <v>0</v>
+        <f>(100+680)+B166</f>
+        <v>1240</v>
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="2"/>
@@ -2775,66 +2829,75 @@
       <c r="G45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="8">
-        <f>SUM(B12:B45)</f>
-        <v>1119.2633333333333</v>
-      </c>
-      <c r="C46" s="8">
-        <f>SUM(C12:C30)</f>
-        <v>6731.4800000000005</v>
-      </c>
-      <c r="D46" s="8"/>
+    <row r="46" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="28">
+        <v>0</v>
+      </c>
+      <c r="C46" s="28">
+        <v>0</v>
+      </c>
+      <c r="D46" s="28"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="2"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="28">
+        <v>0</v>
+      </c>
+      <c r="C47" s="28">
+        <v>0</v>
+      </c>
+      <c r="D47" s="28"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="9">
-        <f>SUM(B1:B3)-B46</f>
-        <v>7084.8066666666664</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="2"/>
+      <c r="A48" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="28">
+        <f>2500-C48</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="28">
+        <v>2500</v>
+      </c>
+      <c r="D48" s="28"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="2"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="2"/>
+      <c r="A49" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="8">
+        <f>SUM(B12:B48)</f>
+        <v>1971.0533333333333</v>
+      </c>
+      <c r="C49" s="8">
+        <f>SUM(C12:C31)</f>
+        <v>15515.69</v>
+      </c>
+      <c r="D49" s="8"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="str">
-        <f ca="1">"DEPOSITO EN LITROS A FECHA: "&amp;TEXT(TODAY(),"dd-MM-aaaa")</f>
-        <v>DEPOSITO EN LITROS A FECHA: 13-08-2025</v>
-      </c>
-      <c r="B50" s="17">
-        <f>C111</f>
-        <v>400</v>
-      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="18"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2843,30 +2906,22 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="23">
-        <f>B119</f>
-        <v>3.7383177570093458</v>
+      <c r="A51" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="9">
+        <f>SUM(B1:B3)-B49</f>
+        <v>5881.8866666666672</v>
       </c>
       <c r="C51" s="18"/>
-      <c r="D51" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="17">
-        <f>C108/B51</f>
-        <v>80.25</v>
-      </c>
+      <c r="B52" s="2"/>
       <c r="C52" s="18"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2874,48 +2929,48 @@
       <c r="G52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="5">
-        <v>44468</v>
-      </c>
-      <c r="C53" s="20">
-        <v>700</v>
-      </c>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="str">
+        <f ca="1">"DEPOSITO EN LITROS A FECHA: "&amp;TEXT(TODAY(),"dd-MM-aaaa")</f>
+        <v>DEPOSITO EN LITROS A FECHA: 15-09-2025</v>
+      </c>
+      <c r="B53" s="17">
+        <f>C114</f>
+        <v>400</v>
+      </c>
+      <c r="C53" s="18"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="5">
-        <v>44469</v>
-      </c>
-      <c r="C54" s="20">
-        <v>695</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B54" s="23">
+        <f>B122</f>
+        <v>3.7383177570093458</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="5">
-        <v>44475</v>
-      </c>
-      <c r="C55" s="20">
-        <v>690</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B55" s="17">
+        <f>C111/B54</f>
+        <v>80.25</v>
+      </c>
+      <c r="C55" s="18"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2927,10 +2982,10 @@
         <v>74</v>
       </c>
       <c r="B56" s="5">
-        <v>44482</v>
+        <v>44468</v>
       </c>
       <c r="C56" s="20">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2943,10 +2998,10 @@
         <v>74</v>
       </c>
       <c r="B57" s="5">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="C57" s="20">
-        <v>670</v>
+        <v>695</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2959,10 +3014,10 @@
         <v>74</v>
       </c>
       <c r="B58" s="5">
-        <v>44496</v>
+        <v>44475</v>
       </c>
       <c r="C58" s="20">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2975,10 +3030,10 @@
         <v>74</v>
       </c>
       <c r="B59" s="5">
-        <v>44502</v>
+        <v>44482</v>
       </c>
       <c r="C59" s="20">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2991,10 +3046,10 @@
         <v>74</v>
       </c>
       <c r="B60" s="5">
-        <v>44510</v>
+        <v>44488</v>
       </c>
       <c r="C60" s="20">
-        <v>550</v>
+        <v>670</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -3007,10 +3062,10 @@
         <v>74</v>
       </c>
       <c r="B61" s="5">
-        <v>44515</v>
+        <v>44496</v>
       </c>
       <c r="C61" s="20">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -3023,10 +3078,10 @@
         <v>74</v>
       </c>
       <c r="B62" s="5">
-        <v>44523</v>
+        <v>44502</v>
       </c>
       <c r="C62" s="20">
-        <v>450</v>
+        <v>610</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -3039,10 +3094,10 @@
         <v>74</v>
       </c>
       <c r="B63" s="5">
-        <v>44532</v>
+        <v>44510</v>
       </c>
       <c r="C63" s="20">
-        <v>320</v>
+        <v>550</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -3055,10 +3110,10 @@
         <v>74</v>
       </c>
       <c r="B64" s="5">
-        <v>44539</v>
+        <v>44515</v>
       </c>
       <c r="C64" s="20">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -3071,10 +3126,10 @@
         <v>74</v>
       </c>
       <c r="B65" s="5">
-        <v>44551</v>
+        <v>44523</v>
       </c>
       <c r="C65" s="20">
-        <v>610</v>
+        <v>450</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -3087,10 +3142,10 @@
         <v>74</v>
       </c>
       <c r="B66" s="5">
-        <v>44558</v>
+        <v>44532</v>
       </c>
       <c r="C66" s="20">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -3103,10 +3158,10 @@
         <v>74</v>
       </c>
       <c r="B67" s="5">
-        <v>44568</v>
+        <v>44539</v>
       </c>
       <c r="C67" s="20">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -3119,10 +3174,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="5">
-        <v>44574</v>
+        <v>44551</v>
       </c>
       <c r="C68" s="20">
-        <v>290</v>
+        <v>610</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -3135,10 +3190,10 @@
         <v>74</v>
       </c>
       <c r="B69" s="5">
-        <v>44589</v>
+        <v>44558</v>
       </c>
       <c r="C69" s="20">
-        <v>810</v>
+        <v>500</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -3151,10 +3206,10 @@
         <v>74</v>
       </c>
       <c r="B70" s="5">
-        <v>44592</v>
+        <v>44568</v>
       </c>
       <c r="C70" s="20">
-        <v>780</v>
+        <v>360</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -3167,10 +3222,10 @@
         <v>74</v>
       </c>
       <c r="B71" s="5">
-        <v>44596</v>
+        <v>44574</v>
       </c>
       <c r="C71" s="20">
-        <v>760</v>
+        <v>290</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -3183,10 +3238,10 @@
         <v>74</v>
       </c>
       <c r="B72" s="5">
-        <v>44600</v>
+        <v>44589</v>
       </c>
       <c r="C72" s="20">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -3199,10 +3254,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="5">
-        <v>44608</v>
+        <v>44592</v>
       </c>
       <c r="C73" s="20">
-        <v>650</v>
+        <v>780</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -3215,10 +3270,10 @@
         <v>74</v>
       </c>
       <c r="B74" s="5">
-        <v>44630</v>
+        <v>44596</v>
       </c>
       <c r="C74" s="20">
-        <v>450</v>
+        <v>760</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -3231,10 +3286,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="5">
-        <v>44637</v>
+        <v>44600</v>
       </c>
       <c r="C75" s="20">
-        <v>380</v>
+        <v>720</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3247,10 +3302,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>44643</v>
+        <v>44608</v>
       </c>
       <c r="C76" s="20">
-        <v>320</v>
+        <v>650</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3263,10 +3318,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="5">
-        <v>44659</v>
+        <v>44630</v>
       </c>
       <c r="C77" s="20">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -3279,10 +3334,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="5">
-        <v>44669</v>
+        <v>44637</v>
       </c>
       <c r="C78" s="20">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -3290,15 +3345,15 @@
       <c r="G78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>74</v>
       </c>
       <c r="B79" s="5">
-        <v>44841</v>
+        <v>44643</v>
       </c>
       <c r="C79" s="20">
-        <v>905</v>
+        <v>320</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -3306,15 +3361,15 @@
       <c r="G79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="5">
-        <v>44853</v>
+        <v>44659</v>
       </c>
       <c r="C80" s="20">
-        <v>880</v>
+        <v>180</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3322,15 +3377,15 @@
       <c r="G80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>74</v>
       </c>
       <c r="B81" s="5">
-        <v>44869</v>
+        <v>44669</v>
       </c>
       <c r="C81" s="20">
-        <v>840</v>
+        <v>120</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3343,10 +3398,10 @@
         <v>74</v>
       </c>
       <c r="B82" s="5">
-        <v>44905</v>
+        <v>44841</v>
       </c>
       <c r="C82" s="20">
-        <v>1000</v>
+        <v>905</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3359,10 +3414,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="5">
-        <v>44914</v>
+        <v>44853</v>
       </c>
       <c r="C83" s="20">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3375,10 +3430,10 @@
         <v>74</v>
       </c>
       <c r="B84" s="5">
-        <v>44922</v>
+        <v>44869</v>
       </c>
       <c r="C84" s="20">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3391,7 +3446,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="5">
-        <v>45290</v>
+        <v>44905</v>
       </c>
       <c r="C85" s="20">
         <v>1000</v>
@@ -3407,10 +3462,10 @@
         <v>74</v>
       </c>
       <c r="B86" s="5">
-        <v>44938</v>
+        <v>44914</v>
       </c>
       <c r="C86" s="20">
-        <v>880</v>
+        <v>910</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3423,10 +3478,10 @@
         <v>74</v>
       </c>
       <c r="B87" s="5">
-        <v>44942</v>
+        <v>44922</v>
       </c>
       <c r="C87" s="20">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3439,10 +3494,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="5">
-        <v>44946</v>
+        <v>45290</v>
       </c>
       <c r="C88" s="20">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3455,10 +3510,10 @@
         <v>74</v>
       </c>
       <c r="B89" s="5">
-        <v>44951</v>
+        <v>44938</v>
       </c>
       <c r="C89" s="20">
-        <v>730</v>
+        <v>880</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3471,10 +3526,10 @@
         <v>74</v>
       </c>
       <c r="B90" s="5">
-        <v>44958</v>
+        <v>44942</v>
       </c>
       <c r="C90" s="20">
-        <v>650</v>
+        <v>830</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3487,10 +3542,10 @@
         <v>74</v>
       </c>
       <c r="B91" s="5">
-        <v>44963</v>
+        <v>44946</v>
       </c>
       <c r="C91" s="20">
-        <v>600</v>
+        <v>790</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3503,10 +3558,10 @@
         <v>74</v>
       </c>
       <c r="B92" s="5">
-        <v>44970</v>
+        <v>44951</v>
       </c>
       <c r="C92" s="20">
-        <v>520</v>
+        <v>730</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3519,10 +3574,10 @@
         <v>74</v>
       </c>
       <c r="B93" s="5">
-        <v>44980</v>
+        <v>44958</v>
       </c>
       <c r="C93" s="20">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3535,10 +3590,10 @@
         <v>74</v>
       </c>
       <c r="B94" s="5">
-        <v>44991</v>
+        <v>44963</v>
       </c>
       <c r="C94" s="20">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3551,10 +3606,10 @@
         <v>74</v>
       </c>
       <c r="B95" s="5">
-        <v>44998</v>
+        <v>44970</v>
       </c>
       <c r="C95" s="20">
-        <v>290</v>
+        <v>520</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3567,10 +3622,10 @@
         <v>74</v>
       </c>
       <c r="B96" s="5">
-        <v>45008</v>
+        <v>44980</v>
       </c>
       <c r="C96" s="20">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3583,10 +3638,10 @@
         <v>74</v>
       </c>
       <c r="B97" s="5">
-        <v>45013</v>
+        <v>44991</v>
       </c>
       <c r="C97" s="20">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3599,10 +3654,10 @@
         <v>74</v>
       </c>
       <c r="B98" s="5">
-        <v>45083</v>
+        <v>44998</v>
       </c>
       <c r="C98" s="20">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3615,10 +3670,10 @@
         <v>74</v>
       </c>
       <c r="B99" s="5">
-        <v>45086</v>
+        <v>45008</v>
       </c>
       <c r="C99" s="20">
-        <v>550</v>
+        <v>230</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3631,10 +3686,10 @@
         <v>74</v>
       </c>
       <c r="B100" s="5">
-        <v>45126</v>
+        <v>45013</v>
       </c>
       <c r="C100" s="20">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3647,10 +3702,10 @@
         <v>74</v>
       </c>
       <c r="B101" s="5">
-        <v>45146</v>
+        <v>45083</v>
       </c>
       <c r="C101" s="20">
-        <v>490</v>
+        <v>50</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3663,10 +3718,10 @@
         <v>74</v>
       </c>
       <c r="B102" s="5">
-        <v>45236</v>
+        <v>45086</v>
       </c>
       <c r="C102" s="20">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3679,10 +3734,10 @@
         <v>74</v>
       </c>
       <c r="B103" s="5">
-        <v>45247</v>
+        <v>45126</v>
       </c>
       <c r="C103" s="20">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3691,14 +3746,14 @@
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="10" t="s">
+      <c r="A104" t="s">
         <v>74</v>
       </c>
       <c r="B104" s="5">
-        <v>45307</v>
+        <v>45146</v>
       </c>
       <c r="C104" s="20">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3707,14 +3762,14 @@
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="10" t="s">
+      <c r="A105" t="s">
         <v>74</v>
       </c>
       <c r="B105" s="5">
-        <v>45327</v>
+        <v>45236</v>
       </c>
       <c r="C105" s="20">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3723,14 +3778,14 @@
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="10" t="s">
+      <c r="A106" t="s">
         <v>74</v>
       </c>
       <c r="B106" s="5">
-        <v>45337</v>
+        <v>45247</v>
       </c>
       <c r="C106" s="20">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3743,10 +3798,10 @@
         <v>74</v>
       </c>
       <c r="B107" s="5">
-        <v>45352</v>
+        <v>45307</v>
       </c>
       <c r="C107" s="20">
-        <v>680</v>
+        <v>450</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3759,7 +3814,7 @@
         <v>74</v>
       </c>
       <c r="B108" s="5">
-        <v>45432</v>
+        <v>45327</v>
       </c>
       <c r="C108" s="20">
         <v>300</v>
@@ -3775,10 +3830,10 @@
         <v>74</v>
       </c>
       <c r="B109" s="5">
-        <v>45454</v>
+        <v>45337</v>
       </c>
       <c r="C109" s="20">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3791,10 +3846,10 @@
         <v>74</v>
       </c>
       <c r="B110" s="5">
-        <v>45538</v>
+        <v>45352</v>
       </c>
       <c r="C110" s="20">
-        <v>800</v>
+        <v>680</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3807,10 +3862,10 @@
         <v>74</v>
       </c>
       <c r="B111" s="5">
-        <v>45645</v>
+        <v>45432</v>
       </c>
       <c r="C111" s="20">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3823,10 +3878,10 @@
         <v>74</v>
       </c>
       <c r="B112" s="5">
-        <v>45686</v>
+        <v>45454</v>
       </c>
       <c r="C112" s="20">
-        <v>550</v>
+        <v>290</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3835,9 +3890,15 @@
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="10"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="20"/>
+      <c r="A113" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B113" s="5">
+        <v>45538</v>
+      </c>
+      <c r="C113" s="20">
+        <v>800</v>
+      </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -3845,8 +3906,15 @@
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="5"/>
-      <c r="C114" s="20"/>
+      <c r="A114" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B114" s="5">
+        <v>45645</v>
+      </c>
+      <c r="C114" s="20">
+        <v>400</v>
+      </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -3854,14 +3922,15 @@
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B115" s="21">
-        <f ca="1">TODAY()+B52-5</f>
-        <v>45957.25</v>
-      </c>
-      <c r="C115" s="18"/>
+      <c r="A115" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B115" s="5">
+        <v>45686</v>
+      </c>
+      <c r="C115" s="20">
+        <v>550</v>
+      </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -3869,8 +3938,9 @@
       <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="20"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -3878,14 +3948,8 @@
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B117" s="17">
-        <f>B111-B110</f>
-        <v>107</v>
-      </c>
-      <c r="C117" s="2"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="20"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -3893,14 +3957,14 @@
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B118" s="22">
-        <f>C110-C111</f>
-        <v>400</v>
-      </c>
-      <c r="C118" s="2"/>
+      <c r="A118" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B118" s="21">
+        <f ca="1">TODAY()+B55-5</f>
+        <v>45990.25</v>
+      </c>
+      <c r="C118" s="18"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -3908,17 +3972,8 @@
       <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B119" s="33">
-        <f>B118/B117</f>
-        <v>3.7383177570093458</v>
-      </c>
-      <c r="C119" s="29">
-        <f>B118/B117</f>
-        <v>3.7383177570093458</v>
-      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -3927,13 +3982,13 @@
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B120" s="33">
-        <f ca="1">(SUM(C133:C138)-C108)/(TODAY()-(TODAY()-365))</f>
-        <v>7.397260273972603</v>
-      </c>
-      <c r="C120" s="29"/>
+        <v>78</v>
+      </c>
+      <c r="B120" s="17">
+        <f>B114-B113</f>
+        <v>107</v>
+      </c>
+      <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -3942,11 +3997,11 @@
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B121" s="2">
-        <f>D138</f>
-        <v>1.095</v>
+        <v>79</v>
+      </c>
+      <c r="B121" s="22">
+        <f>C113-C114</f>
+        <v>400</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -3957,10 +4012,16 @@
     </row>
     <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="B122" s="33">
+        <f>B121/B120</f>
+        <v>3.7383177570093458</v>
+      </c>
+      <c r="C122" s="29">
+        <f>B121/B120</f>
+        <v>3.7383177570093458</v>
+      </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -3968,105 +4029,81 @@
       <c r="I122" s="2"/>
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A123" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123" s="33">
+        <f ca="1">(SUM(C136:C141)-C111)/(TODAY()-(TODAY()-365))</f>
+        <v>7.397260273972603</v>
+      </c>
+      <c r="C123" s="29"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>99</v>
-      </c>
-      <c r="B124" s="5">
-        <v>44211</v>
-      </c>
-      <c r="C124" s="29">
-        <v>500</v>
-      </c>
-      <c r="D124" s="2">
-        <f>0.561983*1.21</f>
-        <v>0.67999942999999996</v>
-      </c>
-      <c r="E124" s="2">
-        <f t="shared" ref="E124:E137" si="0">C124*D124</f>
-        <v>339.99971499999998</v>
-      </c>
+      <c r="A124" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B124" s="2">
+        <f>D141</f>
+        <v>1.095</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B125" s="5">
-        <v>44252</v>
-      </c>
-      <c r="C125" s="29">
-        <v>500</v>
-      </c>
-      <c r="D125" s="2">
-        <f>0.570247*1.21</f>
-        <v>0.68999886999999993</v>
-      </c>
-      <c r="E125" s="2">
-        <f t="shared" si="0"/>
-        <v>344.99943499999995</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B126" s="5">
-        <v>44308</v>
-      </c>
-      <c r="C126" s="29">
-        <v>500</v>
-      </c>
-      <c r="D126" s="2">
-        <f>0.595041*1.21</f>
-        <v>0.71999961000000001</v>
-      </c>
-      <c r="E126" s="2">
-        <f t="shared" si="0"/>
-        <v>359.99980499999998</v>
+      <c r="B126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="10" t="s">
+      <c r="A127" t="s">
         <v>99</v>
       </c>
       <c r="B127" s="5">
-        <v>44468</v>
+        <v>44211</v>
       </c>
       <c r="C127" s="29">
         <v>500</v>
       </c>
       <c r="D127" s="2">
-        <f>0.652892*1.21</f>
-        <v>0.78999932000000006</v>
+        <f>0.561983*1.21</f>
+        <v>0.67999942999999996</v>
       </c>
       <c r="E127" s="2">
-        <f t="shared" si="0"/>
-        <v>394.99966000000001</v>
+        <f t="shared" ref="E127:E140" si="0">C127*D127</f>
+        <v>339.99971499999998</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -4077,18 +4114,18 @@
         <v>99</v>
       </c>
       <c r="B128" s="5">
-        <v>44551</v>
+        <v>44252</v>
       </c>
       <c r="C128" s="29">
         <v>500</v>
       </c>
       <c r="D128" s="2">
-        <f>0.694214*1.21</f>
-        <v>0.83999893999999997</v>
+        <f>0.570247*1.21</f>
+        <v>0.68999886999999993</v>
       </c>
       <c r="E128" s="2">
         <f t="shared" si="0"/>
-        <v>419.99946999999997</v>
+        <v>344.99943499999995</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -4099,18 +4136,18 @@
         <v>99</v>
       </c>
       <c r="B129" s="5">
-        <v>44589</v>
+        <v>44308</v>
       </c>
       <c r="C129" s="29">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="D129" s="2">
-        <f>0.768595*1.21</f>
-        <v>0.92999995000000002</v>
+        <f>0.595041*1.21</f>
+        <v>0.71999961000000001</v>
       </c>
       <c r="E129" s="2">
         <f t="shared" si="0"/>
-        <v>743.99995999999999</v>
+        <v>359.99980499999998</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -4121,17 +4158,18 @@
         <v>99</v>
       </c>
       <c r="B130" s="5">
-        <v>44676</v>
+        <v>44468</v>
       </c>
       <c r="C130" s="29">
         <v>500</v>
       </c>
       <c r="D130" s="2">
-        <v>1.25</v>
+        <f>0.652892*1.21</f>
+        <v>0.78999932000000006</v>
       </c>
       <c r="E130" s="2">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>394.99966000000001</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -4142,17 +4180,18 @@
         <v>99</v>
       </c>
       <c r="B131" s="5">
-        <v>44841</v>
+        <v>44551</v>
       </c>
       <c r="C131" s="29">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D131" s="2">
-        <v>1.23</v>
+        <f>0.694214*1.21</f>
+        <v>0.83999893999999997</v>
       </c>
       <c r="E131" s="2">
         <f t="shared" si="0"/>
-        <v>738</v>
+        <v>419.99946999999997</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -4163,17 +4202,18 @@
         <v>99</v>
       </c>
       <c r="B132" s="5">
-        <v>44905</v>
+        <v>44589</v>
       </c>
       <c r="C132" s="29">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D132" s="2">
-        <v>1.1000000000000001</v>
+        <f>0.768595*1.21</f>
+        <v>0.92999995000000002</v>
       </c>
       <c r="E132" s="2">
         <f t="shared" si="0"/>
-        <v>440.00000000000006</v>
+        <v>743.99995999999999</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -4184,17 +4224,17 @@
         <v>99</v>
       </c>
       <c r="B133" s="5">
-        <v>45291</v>
+        <v>44676</v>
       </c>
       <c r="C133" s="29">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D133" s="2">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="E133" s="2">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>625</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -4205,19 +4245,17 @@
         <v>99</v>
       </c>
       <c r="B134" s="5">
-        <f ca="1">B115</f>
-        <v>45957.25</v>
+        <v>44841</v>
       </c>
       <c r="C134" s="29">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D134" s="2">
-        <f>B121</f>
-        <v>1.095</v>
+        <v>1.23</v>
       </c>
       <c r="E134" s="2">
         <f t="shared" si="0"/>
-        <v>547.5</v>
+        <v>738</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -4228,17 +4266,17 @@
         <v>99</v>
       </c>
       <c r="B135" s="5">
-        <v>45175</v>
+        <v>44905</v>
       </c>
       <c r="C135" s="29">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D135" s="2">
-        <v>0.95</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E135" s="2">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>440.00000000000006</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -4249,17 +4287,17 @@
         <v>99</v>
       </c>
       <c r="B136" s="5">
-        <v>45275</v>
+        <v>45291</v>
       </c>
       <c r="C136" s="29">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="D136" s="2">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="E136" s="2">
         <f t="shared" si="0"/>
-        <v>728</v>
+        <v>248</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -4270,17 +4308,19 @@
         <v>99</v>
       </c>
       <c r="B137" s="5">
-        <v>45359</v>
+        <f ca="1">B118</f>
+        <v>45990.25</v>
       </c>
       <c r="C137" s="29">
         <v>500</v>
       </c>
       <c r="D137" s="2">
-        <v>1.1499999999999999</v>
+        <f>B124</f>
+        <v>1.095</v>
       </c>
       <c r="E137" s="2">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>547.5</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -4291,17 +4331,17 @@
         <v>99</v>
       </c>
       <c r="B138" s="5">
-        <v>45352</v>
+        <v>45175</v>
       </c>
       <c r="C138" s="29">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D138" s="2">
-        <v>1.095</v>
+        <v>0.95</v>
       </c>
       <c r="E138" s="2">
-        <f t="shared" ref="E138" si="1">C138*D138</f>
-        <v>657</v>
+        <f t="shared" si="0"/>
+        <v>475</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -4312,17 +4352,17 @@
         <v>99</v>
       </c>
       <c r="B139" s="5">
-        <v>45331</v>
+        <v>45275</v>
       </c>
       <c r="C139" s="29">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D139" s="2">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="E139" s="2">
-        <f t="shared" ref="E139" si="2">C139*D139</f>
-        <v>594</v>
+        <f t="shared" si="0"/>
+        <v>728</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -4333,17 +4373,17 @@
         <v>99</v>
       </c>
       <c r="B140" s="5">
-        <v>45667</v>
+        <v>45359</v>
       </c>
       <c r="C140" s="29">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D140" s="2">
-        <v>1.04</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E140" s="2">
-        <f t="shared" ref="E140" si="3">C140*D140</f>
-        <v>624</v>
+        <f t="shared" si="0"/>
+        <v>575</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -4354,62 +4394,87 @@
         <v>99</v>
       </c>
       <c r="B141" s="5">
-        <v>45737</v>
+        <v>45352</v>
       </c>
       <c r="C141" s="29">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="D141" s="2">
-        <v>1.04</v>
+        <v>1.095</v>
       </c>
       <c r="E141" s="2">
-        <f t="shared" ref="E141" si="4">C141*D141</f>
-        <v>676</v>
+        <f t="shared" ref="E141" si="1">C141*D141</f>
+        <v>657</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="I141" s="2"/>
     </row>
     <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="10"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B142" s="5">
+        <v>45331</v>
+      </c>
+      <c r="C142" s="29">
+        <v>600</v>
+      </c>
+      <c r="D142" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E142" s="2">
+        <f t="shared" ref="E142" si="2">C142*D142</f>
+        <v>594</v>
+      </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="I142" s="2"/>
     </row>
     <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B143" s="2">
-        <f>(746.3)/(5)</f>
-        <v>149.26</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="B143" s="5">
+        <v>45667</v>
+      </c>
+      <c r="C143" s="29">
+        <v>600</v>
+      </c>
+      <c r="D143" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="E143" s="2">
+        <f t="shared" ref="E143" si="3">C143*D143</f>
+        <v>624</v>
+      </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B144" s="2">
-        <v>69.680000000000007</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="B144" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C144" s="29">
+        <v>650</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="E144" s="2">
+        <f t="shared" ref="E144" si="4">C144*D144</f>
+        <v>676</v>
+      </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="I144" s="2"/>
     </row>
     <row r="145" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="10"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -4418,126 +4483,164 @@
       <c r="G145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="10"/>
-      <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B146" s="2">
+        <f>(746.3)/(5)</f>
+        <v>149.26</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B147" s="2">
+        <v>69.680000000000007</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="10"/>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B147" s="24"/>
-    </row>
-    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="5">
-        <v>44872</v>
-      </c>
-      <c r="B148" s="31">
-        <v>58.07</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="5">
-        <v>44876</v>
-      </c>
-      <c r="B149" s="31">
-        <v>63.26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="5">
-        <v>44880</v>
-      </c>
-      <c r="B150" s="31">
-        <v>75.47</v>
-      </c>
+      <c r="B150" s="24"/>
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
-        <v>44881</v>
+        <v>44872</v>
       </c>
       <c r="B151" s="31">
-        <v>52.61</v>
+        <v>58.07</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
-        <v>44886</v>
+        <v>44876</v>
       </c>
       <c r="B152" s="31">
-        <v>61.6</v>
+        <v>63.26</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
-        <v>44886</v>
+        <v>44880</v>
       </c>
       <c r="B153" s="31">
-        <v>24.14</v>
+        <v>75.47</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
-        <v>44892</v>
+        <v>44881</v>
       </c>
       <c r="B154" s="31">
-        <v>60.61</v>
+        <v>52.61</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
+        <v>44886</v>
+      </c>
+      <c r="B155" s="31">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="5">
+        <v>44886</v>
+      </c>
+      <c r="B156" s="31">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="5">
+        <v>44892</v>
+      </c>
+      <c r="B157" s="31">
+        <v>60.61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="5">
         <v>44895</v>
       </c>
-      <c r="B155" s="31">
+      <c r="B158" s="31">
         <v>59.02</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="5"/>
-      <c r="C156" s="31"/>
-    </row>
-    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B157" s="31">
-        <f>SUM(B148:B155)</f>
-        <v>454.78000000000003</v>
-      </c>
-      <c r="C157" s="31"/>
-    </row>
-    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B158" s="31">
-        <f>B157/8</f>
-        <v>56.847500000000004</v>
-      </c>
-    </row>
     <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B159" s="32">
-        <f>B157-B158</f>
-        <v>397.9325</v>
-      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="31"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B160" s="31">
+        <f>SUM(B151:B158)</f>
+        <v>454.78000000000003</v>
+      </c>
+      <c r="C160" s="31"/>
+    </row>
+    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B161" s="31">
+        <f>B160/8</f>
+        <v>56.847500000000004</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B162" s="32">
+        <f>B160-B161</f>
+        <v>397.9325</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B160" s="31">
-        <f>B158</f>
+      <c r="B163" s="31">
+        <f>B161</f>
         <v>56.847500000000004</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>193</v>
-      </c>
-      <c r="B163" s="1">
+    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>192</v>
+      </c>
+      <c r="B166" s="1">
         <f>(70*3)+250</f>
         <v>460</v>
       </c>
@@ -4546,7 +4649,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B120" formulaRange="1"/>
+    <ignoredError sqref="B123" formulaRange="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -5055,16 +5158,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
         <v>195</v>
-      </c>
-      <c r="D1" t="s">
-        <v>196</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -5072,7 +5175,7 @@
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1">
         <v>87.13</v>
@@ -5090,7 +5193,7 @@
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" s="1">
         <v>79.540000000000006</v>
@@ -5108,7 +5211,7 @@
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="1">
         <v>8.07</v>
@@ -5126,7 +5229,7 @@
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="1">
         <f>SUM(E2:E3)*$B$28</f>
@@ -5145,7 +5248,7 @@
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="1">
         <f>SUM(E2:E3)*$B$29</f>
@@ -5164,7 +5267,7 @@
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="1">
         <f>SUM(E2:E3)*$B$30</f>
@@ -5183,7 +5286,7 @@
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" s="1">
         <f>SUM(E2:E3)*$B$31</f>
@@ -5202,7 +5305,7 @@
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="1">
         <f>SUM(E2:E3)*$B$32</f>
@@ -5221,7 +5324,7 @@
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="1">
         <f>SUM(E2:E4)*B33</f>
@@ -5240,7 +5343,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" s="1">
         <v>87.13</v>
@@ -5258,7 +5361,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="1">
         <v>79.540000000000006</v>
@@ -5276,7 +5379,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="1">
         <v>8.07</v>
@@ -5294,7 +5397,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="1">
         <f>SUM(E11:E12)*$B$28</f>
@@ -5313,7 +5416,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15" s="1">
         <f>SUM(E12:E13)*$B$29</f>
@@ -5332,7 +5435,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="1">
         <f>SUM(E11:E12)*$B$30</f>
@@ -5351,7 +5454,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17" s="1">
         <f>SUM(E11:E12)*$B$31</f>
@@ -5370,7 +5473,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B18" s="1">
         <f>SUM(E11:E12)*$B$32</f>
@@ -5389,7 +5492,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" s="1">
         <f>SUM(E11:E13)*$B$33</f>
@@ -5408,7 +5511,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B20" s="1"/>
       <c r="E20" s="1">
@@ -5418,7 +5521,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="1">
         <f>SUM(E2:E4)</f>
@@ -5427,7 +5530,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26">
         <v>4254.8999999999996</v>
@@ -5435,7 +5538,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27">
         <f>70000/14</f>
@@ -5444,7 +5547,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="54">
         <v>4.7E-2</v>
@@ -5452,7 +5555,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="54">
         <v>1.2999999999999999E-3</v>
@@ -5460,7 +5563,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" s="54">
         <v>3.8400000000000001E-4</v>
@@ -5468,7 +5571,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" s="54">
         <v>1E-3</v>
@@ -5476,7 +5579,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B32" s="54">
         <v>1.55E-2</v>
@@ -5484,7 +5587,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B33" s="54">
         <v>0.223</v>
@@ -5492,7 +5595,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B34" s="1">
         <f>((B27/6)-((B27/6)*B33))*2</f>
@@ -5501,7 +5604,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B35" s="54">
         <v>0.16667000000000001</v>
@@ -5509,7 +5612,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B36">
         <f>B35*((5000/30)*26)</f>
@@ -5518,7 +5621,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B37">
         <f>B35*B27</f>
@@ -5527,7 +5630,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B38">
         <f>SUM(B36:B37)</f>
@@ -5574,54 +5677,54 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="38">
         <v>70000</v>
@@ -5674,7 +5777,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="38">
         <v>70000</v>
@@ -5726,7 +5829,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="32">
         <f>M3-M2</f>
@@ -5739,18 +5842,18 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="52">
         <f>(M2*14)+O2</f>
@@ -5763,7 +5866,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="52">
         <f>(M3*14)+O3</f>
@@ -5776,7 +5879,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="31">
         <v>1.45</v>
@@ -5785,7 +5888,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" s="32">
         <f>B13*45</f>
@@ -5795,7 +5898,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -5803,7 +5906,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="50">
         <f>100*(45/B15)</f>
@@ -5847,39 +5950,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>95</v>
       </c>
       <c r="C1" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="E1" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>142</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F2" s="56">
         <v>3.75</v>
@@ -5887,19 +5990,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>225</v>
-      </c>
       <c r="E3" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F3" s="41">
         <v>6.21</v>
@@ -5907,19 +6010,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F4" s="41">
         <v>6.58</v>
@@ -5927,19 +6030,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F5" s="41">
         <v>8.41</v>
@@ -5947,19 +6050,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F6" s="41">
         <v>10.51</v>
@@ -5967,19 +6070,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" s="41">
         <v>7.69</v>
@@ -5987,19 +6090,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F8" s="41">
         <v>20.8</v>
@@ -6007,19 +6110,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="55" t="s">
         <v>241</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>242</v>
       </c>
       <c r="F9" s="41">
         <f>19.5*3</f>
@@ -6028,19 +6131,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F10" s="41">
         <v>40</v>
@@ -6048,19 +6151,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F11" s="41">
         <v>22</v>
@@ -6068,19 +6171,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="D12" s="55" t="s">
-        <v>238</v>
-      </c>
       <c r="E12" s="55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F12" s="41">
         <v>20.84</v>
@@ -6088,19 +6191,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="55" t="s">
-        <v>240</v>
-      </c>
       <c r="E13" s="55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F13" s="41">
         <v>33.11</v>
@@ -6400,7 +6503,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="37">
         <v>1926.37</v>
@@ -6408,7 +6511,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="37">
         <f>-442.3*2</f>
@@ -6417,7 +6520,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="37">
         <v>-564.41</v>
@@ -6425,7 +6528,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="37">
         <v>-566.35</v>
@@ -6433,7 +6536,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="37">
         <f>SUM(B2:B4)+B1</f>
@@ -6442,7 +6545,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="25">
         <v>-568.23</v>
@@ -6450,7 +6553,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="25">
         <v>-570.19000000000005</v>
@@ -6458,7 +6561,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="25">
         <f>-71.46</f>
@@ -6467,7 +6570,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="25">
         <v>-86.16</v>
@@ -6475,7 +6578,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="25">
         <v>-211.98</v>
@@ -6483,7 +6586,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="25">
         <f>SUM(B1:B10)</f>
@@ -6513,7 +6616,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="37">
         <f>B28*B21*5</f>
@@ -6522,7 +6625,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="37">
         <f>600/12</f>
@@ -6531,7 +6634,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="37">
         <v>145</v>
@@ -6539,7 +6642,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="37">
         <v>145</v>
@@ -6547,7 +6650,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="37">
         <v>86</v>
@@ -6555,7 +6658,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="37">
         <v>86</v>
@@ -6563,7 +6666,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="37">
         <f>250/12</f>
@@ -6572,7 +6675,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="38">
         <v>50</v>
@@ -6593,7 +6696,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12">
         <f>132*22</f>
@@ -6602,7 +6705,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="10">
         <f>132*22*12</f>
@@ -6611,7 +6714,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="38">
         <v>1100</v>
@@ -6619,7 +6722,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="38">
         <v>1300</v>
@@ -6627,7 +6730,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="38">
         <f>B14-B9</f>
@@ -6636,7 +6739,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="38">
         <f>B15-B9</f>
@@ -6645,7 +6748,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21">
         <v>1.4390000000000001</v>
@@ -6653,7 +6756,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22">
         <v>1.339</v>
@@ -6661,7 +6764,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23">
         <v>56</v>
@@ -6669,7 +6772,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24">
         <f>7.6/100</f>
@@ -6678,7 +6781,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="10">
         <f>69*2*5</f>
@@ -6687,7 +6790,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B27" s="47">
         <f>B24</f>
@@ -6696,7 +6799,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="47">
         <f>B27*B26</f>
@@ -7125,8 +7228,8 @@
   <sheetPr codeName="Hoja8"/>
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:G85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9297,7 +9400,7 @@
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B91" s="25">
         <f>B88-B90</f>
@@ -9331,7 +9434,7 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/Gastos_ingresos_calculados_2025.xlsx
+++ b/Gastos_ingresos_calculados_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Allfunds_CB\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963BFBED-11BB-426D-8885-AF267C42F89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD67F030-77BD-4B18-A9D2-48C62C442323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gastos_2025" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,6 @@
     <author>tc={B4A7A13B-470E-43E4-BDB5-188D0196D6AF}</author>
     <author>Charly</author>
     <author>Charly B</author>
-    <author>tc={16A2CD11-91B5-4ED0-A53A-C59456EFB1B2}</author>
     <author>tc={63F0D1F1-B9A3-4C41-94E3-919EA4B3D465}</author>
     <author>tc={D239227B-ECE8-4B4D-8CA5-CD85225F55F6}</author>
     <author>tc={36D9CB0B-B078-42C1-AA1D-DCFDD2515750}</author>
@@ -79,7 +78,7 @@
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
-    Facturación 22 de Agosto</t>
+    Facturación 22 de cada mes</t>
       </text>
     </comment>
     <comment ref="B20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
@@ -213,15 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Pago donacion: 130€ + Pago material: 84€ + Aux. Inglés Noa: 7€</t>
-      </text>
-    </comment>
-    <comment ref="C30" authorId="5" shapeId="0" xr:uid="{63F0D1F1-B9A3-4C41-94E3-919EA4B3D465}">
+    <comment ref="C31" authorId="4" shapeId="0" xr:uid="{63F0D1F1-B9A3-4C41-94E3-919EA4B3D465}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -229,7 +220,7 @@
     Vacuna rabia+leishmania</t>
       </text>
     </comment>
-    <comment ref="C31" authorId="6" shapeId="0" xr:uid="{D239227B-ECE8-4B4D-8CA5-CD85225F55F6}">
+    <comment ref="C32" authorId="5" shapeId="0" xr:uid="{D239227B-ECE8-4B4D-8CA5-CD85225F55F6}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -237,7 +228,7 @@
     Revisar fecha de pago en Febrero</t>
       </text>
     </comment>
-    <comment ref="B32" authorId="7" shapeId="0" xr:uid="{36D9CB0B-B078-42C1-AA1D-DCFDD2515750}">
+    <comment ref="B33" authorId="6" shapeId="0" xr:uid="{36D9CB0B-B078-42C1-AA1D-DCFDD2515750}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -245,7 +236,7 @@
     1º cuota: 13/5, 2º cuota: 13/6, 3º cuota: 13/7</t>
       </text>
     </comment>
-    <comment ref="B33" authorId="8" shapeId="0" xr:uid="{6B1573CA-7DB3-4CFC-8EE8-E90A359009E4}">
+    <comment ref="B34" authorId="7" shapeId="0" xr:uid="{6B1573CA-7DB3-4CFC-8EE8-E90A359009E4}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -255,7 +246,7 @@
 3º cuota: 6/10</t>
       </text>
     </comment>
-    <comment ref="C36" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="C37" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -263,7 +254,7 @@
     Primer pago 21/06</t>
       </text>
     </comment>
-    <comment ref="C37" authorId="10" shapeId="0" xr:uid="{1FD83A3F-4D00-4720-B574-BF1207731575}">
+    <comment ref="C38" authorId="9" shapeId="0" xr:uid="{1FD83A3F-4D00-4720-B574-BF1207731575}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -271,7 +262,7 @@
     Día 1-5 de cada mes, 18 cuotas desde 1/10, última cuota: 1 de Marzo de 2026. Pagado 9 cuotas= 132,22*11 = 1454,42</t>
       </text>
     </comment>
-    <comment ref="C38" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="C39" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -279,7 +270,7 @@
     Regalos abus, regalos sobris, regalos ahijado y amigo invisible, regalos hijos y amigos invisibles/padrinos y regalos Cris.</t>
       </text>
     </comment>
-    <comment ref="A39" authorId="12" shapeId="0" xr:uid="{792F21A8-A42C-46A8-8E43-C1FA44D530EC}">
+    <comment ref="A40" authorId="11" shapeId="0" xr:uid="{792F21A8-A42C-46A8-8E43-C1FA44D530EC}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -287,7 +278,7 @@
     Primera cuota, 30/3, 12 meses, 30/3/26, 65€ x 12 = 780€</t>
       </text>
     </comment>
-    <comment ref="C41" authorId="13" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="C42" authorId="12" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -295,7 +286,7 @@
     Limpieza hecha el 16/5/23 después de 2 años.</t>
       </text>
     </comment>
-    <comment ref="A44" authorId="14" shapeId="0" xr:uid="{606BF597-6B03-4431-BD52-2E6A88997EE1}">
+    <comment ref="A45" authorId="13" shapeId="0" xr:uid="{606BF597-6B03-4431-BD52-2E6A88997EE1}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -303,7 +294,7 @@
     Del sábado 12/7 al jueves 17/7, 460€ estimado de gasolina + comida</t>
       </text>
     </comment>
-    <comment ref="C44" authorId="15" shapeId="0" xr:uid="{7B4B3139-9C41-4782-9939-5C1107569128}">
+    <comment ref="C45" authorId="14" shapeId="0" xr:uid="{7B4B3139-9C41-4782-9939-5C1107569128}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -311,7 +302,7 @@
     Pagado 107,49€, pagar 429,92€ el 29/6</t>
       </text>
     </comment>
-    <comment ref="A45" authorId="16" shapeId="0" xr:uid="{9B84BFA2-6B57-48E1-81B2-49D28C343525}">
+    <comment ref="A46" authorId="15" shapeId="0" xr:uid="{9B84BFA2-6B57-48E1-81B2-49D28C343525}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -319,7 +310,7 @@
     Del domingo 20/7 al domingo 27/7, 460€ estimado de gastos</t>
       </text>
     </comment>
-    <comment ref="C45" authorId="17" shapeId="0" xr:uid="{DCA9F100-944C-49CA-BE4F-42E2DC0607F4}">
+    <comment ref="C46" authorId="16" shapeId="0" xr:uid="{DCA9F100-944C-49CA-BE4F-42E2DC0607F4}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -327,7 +318,7 @@
     El resto: 680€ a la llegada el domingo 20/7</t>
       </text>
     </comment>
-    <comment ref="C48" authorId="18" shapeId="0" xr:uid="{456ABF91-7098-4F3A-BF21-43F075017102}">
+    <comment ref="C50" authorId="17" shapeId="0" xr:uid="{456ABF91-7098-4F3A-BF21-43F075017102}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -335,7 +326,7 @@
     Estimación gasto material Bricomart con lavabo y vater nuestro</t>
       </text>
     </comment>
-    <comment ref="B146" authorId="19" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="B150" authorId="18" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -386,7 +377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="255">
   <si>
     <t>IVA</t>
   </si>
@@ -1129,10 +1120,28 @@
     <t>UNIVERSIDAD CRIS</t>
   </si>
   <si>
-    <t>GASTOS COLEGIO</t>
-  </si>
-  <si>
     <t>GASTOS MATERIAL CASA</t>
+  </si>
+  <si>
+    <t>BONUS MINIMO</t>
+  </si>
+  <si>
+    <t>BONUS MAXIMO</t>
+  </si>
+  <si>
+    <t>REPERCUTE NOMINA ABRIL</t>
+  </si>
+  <si>
+    <t>CON IRPF</t>
+  </si>
+  <si>
+    <t>GASTOS COLEGIO (EXTRAESCOLARES)</t>
+  </si>
+  <si>
+    <t>REPARACION MOTO</t>
+  </si>
+  <si>
+    <t>GASTOS MATERIAL COLEGIO</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1167,7 @@
     <numFmt numFmtId="177" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
     <numFmt numFmtId="178" formatCode="#,##0\ [$€-C0A]"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1267,12 +1276,6 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2033,56 +2036,53 @@
     <text>Pagado 3.000€, condonan 10.000€ de deuda, y esto es lo que falta a día 8/9</text>
   </threadedComment>
   <threadedComment ref="B16" dT="2025-09-03T08:59:19.02" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{B4A7A13B-470E-43E4-BDB5-188D0196D6AF}">
-    <text>Facturación 22 de Agosto</text>
+    <text>Facturación 22 de cada mes</text>
   </threadedComment>
-  <threadedComment ref="B28" dT="2022-12-02T10:11:47.51" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{16A2CD11-91B5-4ED0-A53A-C59456EFB1B2}">
-    <text>Pago donacion: 130€ + Pago material: 84€ + Aux. Inglés Noa: 7€</text>
-  </threadedComment>
-  <threadedComment ref="C30" dT="2025-05-19T07:16:43.66" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{63F0D1F1-B9A3-4C41-94E3-919EA4B3D465}">
+  <threadedComment ref="C31" dT="2025-05-19T07:16:43.66" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{63F0D1F1-B9A3-4C41-94E3-919EA4B3D465}">
     <text>Vacuna rabia+leishmania</text>
   </threadedComment>
-  <threadedComment ref="C31" dT="2025-05-19T07:15:55.70" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{D239227B-ECE8-4B4D-8CA5-CD85225F55F6}">
+  <threadedComment ref="C32" dT="2025-05-19T07:15:55.70" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{D239227B-ECE8-4B4D-8CA5-CD85225F55F6}">
     <text>Revisar fecha de pago en Febrero</text>
   </threadedComment>
-  <threadedComment ref="B32" dT="2025-07-01T09:10:50.24" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{36D9CB0B-B078-42C1-AA1D-DCFDD2515750}">
+  <threadedComment ref="B33" dT="2025-07-01T09:10:50.24" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{36D9CB0B-B078-42C1-AA1D-DCFDD2515750}">
     <text>1º cuota: 13/5, 2º cuota: 13/6, 3º cuota: 13/7</text>
   </threadedComment>
-  <threadedComment ref="B33" dT="2025-07-01T09:11:30.59" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{6B1573CA-7DB3-4CFC-8EE8-E90A359009E4}">
+  <threadedComment ref="B34" dT="2025-07-01T09:11:30.59" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{6B1573CA-7DB3-4CFC-8EE8-E90A359009E4}">
     <text>1º cuota: 6/8
 2º cuota: 6/9
 3º cuota: 6/10</text>
   </threadedComment>
-  <threadedComment ref="C36" dT="2022-06-06T14:39:18.34" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{5AE7D469-F209-45F7-9CEF-DC168E80F1EF}">
+  <threadedComment ref="C37" dT="2022-06-06T14:39:18.34" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{5AE7D469-F209-45F7-9CEF-DC168E80F1EF}">
     <text>Primer pago 21/06</text>
   </threadedComment>
-  <threadedComment ref="C37" dT="2025-06-09T08:14:42.39" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{1FD83A3F-4D00-4720-B574-BF1207731575}">
+  <threadedComment ref="C38" dT="2025-06-09T08:14:42.39" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{1FD83A3F-4D00-4720-B574-BF1207731575}">
     <text>Día 1-5 de cada mes, 18 cuotas desde 1/10, última cuota: 1 de Marzo de 2026. Pagado 9 cuotas= 132,22*11 = 1454,42</text>
   </threadedComment>
-  <threadedComment ref="C38" dT="2025-01-17T18:11:00.46" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{88F70749-3707-4B8B-B04C-B2D930BA86CD}">
+  <threadedComment ref="C39" dT="2025-01-17T18:11:00.46" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{88F70749-3707-4B8B-B04C-B2D930BA86CD}">
     <text>Regalos abus, regalos sobris, regalos ahijado y amigo invisible, regalos hijos y amigos invisibles/padrinos y regalos Cris.</text>
   </threadedComment>
-  <threadedComment ref="A39" dT="2025-05-28T08:44:28.16" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{792F21A8-A42C-46A8-8E43-C1FA44D530EC}">
+  <threadedComment ref="A40" dT="2025-05-28T08:44:28.16" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{792F21A8-A42C-46A8-8E43-C1FA44D530EC}">
     <text>Primera cuota, 30/3, 12 meses, 30/3/26, 65€ x 12 = 780€</text>
   </threadedComment>
-  <threadedComment ref="C41" dT="2023-05-17T13:18:01.51" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{EE57CC3A-2DFD-48B0-A087-D8F7A1E91E0A}">
+  <threadedComment ref="C42" dT="2023-05-17T13:18:01.51" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{EE57CC3A-2DFD-48B0-A087-D8F7A1E91E0A}">
     <text>Limpieza hecha el 16/5/23 después de 2 años.</text>
   </threadedComment>
-  <threadedComment ref="A44" dT="2025-05-28T08:13:00.88" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{606BF597-6B03-4431-BD52-2E6A88997EE1}">
+  <threadedComment ref="A45" dT="2025-05-28T08:13:00.88" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{606BF597-6B03-4431-BD52-2E6A88997EE1}">
     <text>Del sábado 12/7 al jueves 17/7, 460€ estimado de gasolina + comida</text>
   </threadedComment>
-  <threadedComment ref="C44" dT="2025-05-19T07:21:03.47" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{7B4B3139-9C41-4782-9939-5C1107569128}">
+  <threadedComment ref="C45" dT="2025-05-19T07:21:03.47" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{7B4B3139-9C41-4782-9939-5C1107569128}">
     <text>Pagado 107,49€, pagar 429,92€ el 29/6</text>
   </threadedComment>
-  <threadedComment ref="A45" dT="2025-05-28T08:13:20.71" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{9B84BFA2-6B57-48E1-81B2-49D28C343525}">
+  <threadedComment ref="A46" dT="2025-05-28T08:13:20.71" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{9B84BFA2-6B57-48E1-81B2-49D28C343525}">
     <text>Del domingo 20/7 al domingo 27/7, 460€ estimado de gastos</text>
   </threadedComment>
-  <threadedComment ref="C45" dT="2025-05-19T07:21:34.30" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{DCA9F100-944C-49CA-BE4F-42E2DC0607F4}">
+  <threadedComment ref="C46" dT="2025-05-19T07:21:34.30" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{DCA9F100-944C-49CA-BE4F-42E2DC0607F4}">
     <text>El resto: 680€ a la llegada el domingo 20/7</text>
   </threadedComment>
-  <threadedComment ref="C48" dT="2025-09-15T12:51:08.54" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{456ABF91-7098-4F3A-BF21-43F075017102}">
+  <threadedComment ref="C50" dT="2025-09-15T12:51:08.54" personId="{6C5B242B-422F-4F9D-9A55-5B86956DA581}" id="{456ABF91-7098-4F3A-BF21-43F075017102}">
     <text>Estimación gasto material Bricomart con lavabo y vater nuestro</text>
   </threadedComment>
-  <threadedComment ref="B146" dT="2022-06-06T13:27:53.22" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{DD2FEDF0-3221-4FF5-8FE7-298256927858}">
+  <threadedComment ref="B150" dT="2022-06-06T13:27:53.22" personId="{6C35661E-19D1-491D-B00F-708C0B100B32}" id="{DD2FEDF0-3221-4FF5-8FE7-298256927858}">
     <text>Primera cuota el el 21/06, última en octubre</text>
   </threadedComment>
 </ThreadedComments>
@@ -2091,32 +2091,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" customWidth="1"/>
-    <col min="7" max="7" width="23.26953125" customWidth="1"/>
-    <col min="8" max="8" width="26.453125" customWidth="1"/>
-    <col min="9" max="10" width="22.26953125" customWidth="1"/>
-    <col min="11" max="11" width="29.26953125" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>150</v>
       </c>
       <c r="B1" s="8">
-        <v>1580.43</v>
+        <f>1175.21</f>
+        <v>1175.21</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2125,13 +2126,13 @@
       <c r="G1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="8">
-        <f>11272.51 -5000</f>
-        <v>6272.51</v>
+        <f>9415.46-5000</f>
+        <v>4415.4599999999991</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2140,7 +2141,7 @@
       <c r="G2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>102</v>
       </c>
@@ -2156,7 +2157,7 @@
       <c r="G3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>137</v>
       </c>
@@ -2170,7 +2171,7 @@
       <c r="G4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>51</v>
       </c>
@@ -2184,7 +2185,7 @@
       <c r="G5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>114</v>
       </c>
@@ -2198,7 +2199,7 @@
       <c r="G6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>147</v>
       </c>
@@ -2210,7 +2211,7 @@
       <c r="G7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>145</v>
       </c>
@@ -2224,7 +2225,7 @@
       <c r="G8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="8"/>
       <c r="C9" s="34"/>
@@ -2234,7 +2235,7 @@
       <c r="G9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
@@ -2244,7 +2245,7 @@
       <c r="G10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
         <v>76</v>
@@ -2258,7 +2259,7 @@
       <c r="G11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>50</v>
       </c>
@@ -2275,7 +2276,7 @@
       <c r="G12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>51</v>
       </c>
@@ -2292,7 +2293,7 @@
       <c r="G13" s="17"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>52</v>
       </c>
@@ -2309,16 +2310,16 @@
       <c r="G14" s="17"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="18">
-        <f>150-C15</f>
+        <f>140-C15</f>
         <v>0</v>
       </c>
       <c r="C15" s="18">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="2"/>
@@ -2326,13 +2327,13 @@
       <c r="G15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="18">
-        <f>85.46-C16</f>
-        <v>85.46</v>
+        <f>83.79-C16</f>
+        <v>83.79</v>
       </c>
       <c r="C16" s="18">
         <v>0</v>
@@ -2343,7 +2344,7 @@
       <c r="G16" s="17"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>55</v>
       </c>
@@ -2361,17 +2362,17 @@
       <c r="G17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="18">
-        <f>(30*4+70*3)-C18</f>
-        <v>90</v>
+        <f>(75*4)-C18</f>
+        <v>160</v>
       </c>
       <c r="C18" s="18">
-        <f>(70*3)+(15*2)</f>
-        <v>240</v>
+        <f>70*2</f>
+        <v>140</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="2"/>
@@ -2379,7 +2380,7 @@
       <c r="G18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>57</v>
       </c>
@@ -2395,7 +2396,7 @@
       <c r="G19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>58</v>
       </c>
@@ -2411,7 +2412,7 @@
       <c r="G20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>59</v>
       </c>
@@ -2427,7 +2428,7 @@
       <c r="G21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>73</v>
       </c>
@@ -2443,7 +2444,7 @@
       <c r="G22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>72</v>
       </c>
@@ -2459,7 +2460,7 @@
       <c r="G23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>92</v>
       </c>
@@ -2475,7 +2476,7 @@
       <c r="G24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>75</v>
       </c>
@@ -2492,7 +2493,7 @@
       <c r="G25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>91</v>
       </c>
@@ -2508,7 +2509,7 @@
       <c r="G26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>97</v>
       </c>
@@ -2524,16 +2525,16 @@
       <c r="G27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>148</v>
       </c>
       <c r="B28" s="18">
-        <f>(130+7)*2+((85*4)/12)-C28</f>
-        <v>302.33333333333331</v>
+        <f>(130*2)-C28</f>
+        <v>0</v>
       </c>
       <c r="C28" s="18">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="2"/>
@@ -2541,17 +2542,17 @@
       <c r="G28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B29" s="18">
-        <f>(100+42)-C29</f>
+        <f>85*2-C29</f>
         <v>0</v>
       </c>
       <c r="C29" s="18">
-        <f>100+42</f>
-        <v>142</v>
+        <f>85*2</f>
+        <v>170</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="2"/>
@@ -2559,33 +2560,33 @@
       <c r="G29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="28">
+        <v>252</v>
+      </c>
+      <c r="B30" s="18">
+        <f>(35+42)-C30</f>
         <v>0</v>
       </c>
-      <c r="C30" s="28">
-        <f>40+80</f>
-        <v>120</v>
-      </c>
-      <c r="D30" s="28"/>
+      <c r="C30" s="18">
+        <v>77</v>
+      </c>
+      <c r="D30" s="18"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B31" s="28">
         <v>0</v>
       </c>
       <c r="C31" s="28">
-        <f>D31</f>
-        <v>0</v>
+        <f>40+80</f>
+        <v>120</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="2"/>
@@ -2593,16 +2594,16 @@
       <c r="G31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="B32" s="28">
         <v>0</v>
       </c>
       <c r="C32" s="28">
-        <f>(199.84-49.96)+(194.16-48.64)+(194.16-48.54)</f>
-        <v>441.02</v>
+        <f>D32</f>
+        <v>0</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="2"/>
@@ -2610,16 +2611,16 @@
       <c r="G32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" s="28">
         <v>0</v>
       </c>
       <c r="C33" s="28">
-        <f>((345.45)/3)*2</f>
-        <v>230.29999999999998</v>
+        <f>(199.84-49.96)+(194.16-48.64)+(194.16-48.54)</f>
+        <v>441.02</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="2"/>
@@ -2627,17 +2628,17 @@
       <c r="G33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B34" s="28">
-        <f>(63.61+61.38+87.95)-C34</f>
+        <f>((345.45)/3)*3-C34</f>
         <v>0</v>
       </c>
       <c r="C34" s="28">
-        <f>63.61+61.38+87.95</f>
-        <v>212.94</v>
+        <f>((345.45)/3)*3</f>
+        <v>345.45</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="2"/>
@@ -2645,16 +2646,17 @@
       <c r="G34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B35" s="28">
-        <f>E142-C35</f>
-        <v>594</v>
+        <f>(63.61+61.38+87.95)-C35</f>
+        <v>0</v>
       </c>
       <c r="C35" s="28">
-        <v>0</v>
+        <f>63.61+61.38+87.95</f>
+        <v>212.94</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="2"/>
@@ -2662,16 +2664,16 @@
       <c r="G35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B36" s="28">
-        <f>B146</f>
-        <v>149.26</v>
+        <f>E145-C36</f>
+        <v>0</v>
       </c>
       <c r="C36" s="28">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="2"/>
@@ -2679,16 +2681,16 @@
       <c r="G36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="B37" s="28">
-        <f>132.22-C37</f>
+        <f>B150-C37</f>
+        <v>149.26</v>
+      </c>
+      <c r="C37" s="28">
         <v>0</v>
-      </c>
-      <c r="C37" s="28">
-        <v>132.22</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="2"/>
@@ -2696,98 +2698,99 @@
       <c r="G37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" s="28">
+        <f>132.22-C38</f>
         <v>0</v>
       </c>
       <c r="C38" s="28">
-        <v>150</v>
-      </c>
-      <c r="D38" s="48"/>
+        <v>132.22</v>
+      </c>
+      <c r="D38" s="28"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="B39" s="28">
-        <f>65.17-C39</f>
         <v>0</v>
       </c>
       <c r="C39" s="28">
-        <v>65.17</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D39" s="48"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="B40" s="28">
-        <f>23.3335*15-C40</f>
+        <f>65.17-C40</f>
         <v>0</v>
       </c>
       <c r="C40" s="28">
-        <f>23.3335*15</f>
-        <v>350.0025</v>
+        <v>65.17</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
       <c r="B41" s="28">
-        <f>300-C41</f>
-        <v>300</v>
+        <f>23.3335*15-C41</f>
+        <v>0</v>
       </c>
       <c r="C41" s="28">
-        <v>0</v>
-      </c>
-      <c r="D41" s="48"/>
+        <f>23.3335*15</f>
+        <v>350.0025</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="B42" s="28">
+        <f>300-C42</f>
         <v>0</v>
       </c>
       <c r="C42" s="28">
-        <f>155+83.32+20</f>
-        <v>258.32</v>
-      </c>
-      <c r="D42" s="28"/>
+        <v>300</v>
+      </c>
+      <c r="D42" s="48"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="B43" s="28">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C43" s="28">
-        <v>0</v>
+        <f>155+83.32+20</f>
+        <v>258.32</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="2"/>
@@ -2795,49 +2798,51 @@
       <c r="G43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="B44" s="28">
+        <f>(37.18*3)-C44</f>
         <v>0</v>
       </c>
       <c r="C44" s="28">
-        <f>(107.49+429.92)+B166</f>
-        <v>997.41</v>
-      </c>
-      <c r="D44" s="53"/>
+        <f>37.18*3</f>
+        <v>111.53999999999999</v>
+      </c>
+      <c r="D44" s="28"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" s="28">
         <v>0</v>
       </c>
       <c r="C45" s="28">
-        <f>(100+680)+B166</f>
-        <v>1240</v>
-      </c>
-      <c r="D45" s="28"/>
+        <f>(107.49+429.92)+B170</f>
+        <v>997.41</v>
+      </c>
+      <c r="D45" s="53"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="B46" s="28">
         <v>0</v>
       </c>
       <c r="C46" s="28">
-        <v>0</v>
+        <f>(100+680)+B170</f>
+        <v>1240</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="2"/>
@@ -2845,9 +2850,9 @@
       <c r="G46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>149</v>
+        <v>244</v>
       </c>
       <c r="B47" s="28">
         <v>0</v>
@@ -2861,16 +2866,15 @@
       <c r="G47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B48" s="28">
-        <f>2500-C48</f>
+        <v>1200</v>
+      </c>
+      <c r="C48" s="28">
         <v>0</v>
-      </c>
-      <c r="C48" s="28">
-        <v>2500</v>
       </c>
       <c r="D48" s="28"/>
       <c r="E48" s="2"/>
@@ -2878,49 +2882,58 @@
       <c r="G48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="8">
-        <f>SUM(B12:B48)</f>
-        <v>1971.0533333333333</v>
-      </c>
-      <c r="C49" s="8">
-        <f>SUM(C12:C31)</f>
-        <v>15515.69</v>
-      </c>
-      <c r="D49" s="8"/>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="28">
+        <v>0</v>
+      </c>
+      <c r="C49" s="28">
+        <v>0</v>
+      </c>
+      <c r="D49" s="28"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="2"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="2"/>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="28">
+        <f>2500-C50</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="28">
+        <v>2500</v>
+      </c>
+      <c r="D50" s="28"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="9">
-        <f>SUM(B1:B3)-B49</f>
-        <v>5881.8866666666672</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B51" s="8">
+        <f>SUM(B12:B50)</f>
+        <v>1893.05</v>
+      </c>
+      <c r="C51" s="8">
+        <f>SUM(C12:C32)</f>
+        <v>15770.69</v>
+      </c>
+      <c r="D51" s="8"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="18"/>
       <c r="D52" s="2"/>
@@ -2929,14 +2942,13 @@
       <c r="G52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="str">
-        <f ca="1">"DEPOSITO EN LITROS A FECHA: "&amp;TEXT(TODAY(),"dd-MM-aaaa")</f>
-        <v>DEPOSITO EN LITROS A FECHA: 15-09-2025</v>
-      </c>
-      <c r="B53" s="17">
-        <f>C114</f>
-        <v>400</v>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="9">
+        <f>SUM(B1:B3)-B51</f>
+        <v>3697.619999999999</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="2"/>
@@ -2945,30 +2957,22 @@
       <c r="G53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="23">
-        <f>B122</f>
-        <v>3.7383177570093458</v>
-      </c>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
       <c r="C54" s="18"/>
-      <c r="D54" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>70</v>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="str">
+        <f ca="1">"DEPOSITO EN LITROS A FECHA: "&amp;TEXT(TODAY(),"dd-MM-aaaa")</f>
+        <v>DEPOSITO EN LITROS A FECHA: 19-11-2025</v>
       </c>
       <c r="B55" s="17">
-        <f>C111/B54</f>
-        <v>80.25</v>
+        <v>990</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="2"/>
@@ -2977,47 +2981,47 @@
       <c r="G55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="5">
-        <v>44468</v>
-      </c>
-      <c r="C56" s="20">
-        <v>700</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B56" s="23">
+        <f>B125</f>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="5">
-        <v>44469</v>
-      </c>
-      <c r="C57" s="20">
-        <v>695</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B57" s="17">
+        <f>C119/B56</f>
+        <v>1683</v>
+      </c>
+      <c r="C57" s="18"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
       <c r="B58" s="5">
-        <v>44475</v>
+        <v>44468</v>
       </c>
       <c r="C58" s="20">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -3025,15 +3029,15 @@
       <c r="G58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>74</v>
       </c>
       <c r="B59" s="5">
-        <v>44482</v>
+        <v>44469</v>
       </c>
       <c r="C59" s="20">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -3041,15 +3045,15 @@
       <c r="G59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>74</v>
       </c>
       <c r="B60" s="5">
-        <v>44488</v>
+        <v>44475</v>
       </c>
       <c r="C60" s="20">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -3057,15 +3061,15 @@
       <c r="G60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
       <c r="B61" s="5">
-        <v>44496</v>
+        <v>44482</v>
       </c>
       <c r="C61" s="20">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -3073,15 +3077,15 @@
       <c r="G61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>74</v>
       </c>
       <c r="B62" s="5">
-        <v>44502</v>
+        <v>44488</v>
       </c>
       <c r="C62" s="20">
-        <v>610</v>
+        <v>670</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -3089,15 +3093,15 @@
       <c r="G62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
       <c r="B63" s="5">
-        <v>44510</v>
+        <v>44496</v>
       </c>
       <c r="C63" s="20">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -3105,15 +3109,15 @@
       <c r="G63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="5">
-        <v>44515</v>
+        <v>44502</v>
       </c>
       <c r="C64" s="20">
-        <v>520</v>
+        <v>610</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -3121,15 +3125,15 @@
       <c r="G64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="5">
-        <v>44523</v>
+        <v>44510</v>
       </c>
       <c r="C65" s="20">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -3137,15 +3141,15 @@
       <c r="G65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="5">
-        <v>44532</v>
+        <v>44515</v>
       </c>
       <c r="C66" s="20">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -3153,15 +3157,15 @@
       <c r="G66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
       <c r="B67" s="5">
-        <v>44539</v>
+        <v>44523</v>
       </c>
       <c r="C67" s="20">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -3169,15 +3173,15 @@
       <c r="G67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="5">
-        <v>44551</v>
+        <v>44532</v>
       </c>
       <c r="C68" s="20">
-        <v>610</v>
+        <v>320</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -3185,15 +3189,15 @@
       <c r="G68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="5">
-        <v>44558</v>
+        <v>44539</v>
       </c>
       <c r="C69" s="20">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -3201,15 +3205,15 @@
       <c r="G69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
       <c r="B70" s="5">
-        <v>44568</v>
+        <v>44551</v>
       </c>
       <c r="C70" s="20">
-        <v>360</v>
+        <v>610</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -3217,15 +3221,15 @@
       <c r="G70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
       <c r="B71" s="5">
-        <v>44574</v>
+        <v>44558</v>
       </c>
       <c r="C71" s="20">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -3233,15 +3237,15 @@
       <c r="G71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="5">
-        <v>44589</v>
+        <v>44568</v>
       </c>
       <c r="C72" s="20">
-        <v>810</v>
+        <v>360</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -3249,15 +3253,15 @@
       <c r="G72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="5">
-        <v>44592</v>
+        <v>44574</v>
       </c>
       <c r="C73" s="20">
-        <v>780</v>
+        <v>290</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -3265,15 +3269,15 @@
       <c r="G73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="5">
-        <v>44596</v>
+        <v>44589</v>
       </c>
       <c r="C74" s="20">
-        <v>760</v>
+        <v>810</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -3281,15 +3285,15 @@
       <c r="G74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="5">
-        <v>44600</v>
+        <v>44592</v>
       </c>
       <c r="C75" s="20">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3297,15 +3301,15 @@
       <c r="G75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>44608</v>
+        <v>44596</v>
       </c>
       <c r="C76" s="20">
-        <v>650</v>
+        <v>760</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3313,15 +3317,15 @@
       <c r="G76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
       <c r="B77" s="5">
-        <v>44630</v>
+        <v>44600</v>
       </c>
       <c r="C77" s="20">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -3329,15 +3333,15 @@
       <c r="G77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
       <c r="B78" s="5">
-        <v>44637</v>
+        <v>44608</v>
       </c>
       <c r="C78" s="20">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -3345,15 +3349,15 @@
       <c r="G78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>74</v>
       </c>
       <c r="B79" s="5">
-        <v>44643</v>
+        <v>44630</v>
       </c>
       <c r="C79" s="20">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -3361,15 +3365,15 @@
       <c r="G79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="5">
-        <v>44659</v>
+        <v>44637</v>
       </c>
       <c r="C80" s="20">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3377,15 +3381,15 @@
       <c r="G80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>74</v>
       </c>
       <c r="B81" s="5">
-        <v>44669</v>
+        <v>44643</v>
       </c>
       <c r="C81" s="20">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3393,15 +3397,15 @@
       <c r="G81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>74</v>
       </c>
       <c r="B82" s="5">
-        <v>44841</v>
+        <v>44659</v>
       </c>
       <c r="C82" s="20">
-        <v>905</v>
+        <v>180</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3409,15 +3413,15 @@
       <c r="G82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>74</v>
       </c>
       <c r="B83" s="5">
-        <v>44853</v>
+        <v>44669</v>
       </c>
       <c r="C83" s="20">
-        <v>880</v>
+        <v>120</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3425,15 +3429,15 @@
       <c r="G83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>74</v>
       </c>
       <c r="B84" s="5">
-        <v>44869</v>
+        <v>44841</v>
       </c>
       <c r="C84" s="20">
-        <v>840</v>
+        <v>905</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3441,15 +3445,15 @@
       <c r="G84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>74</v>
       </c>
       <c r="B85" s="5">
-        <v>44905</v>
+        <v>44853</v>
       </c>
       <c r="C85" s="20">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3457,15 +3461,15 @@
       <c r="G85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>74</v>
       </c>
       <c r="B86" s="5">
-        <v>44914</v>
+        <v>44869</v>
       </c>
       <c r="C86" s="20">
-        <v>910</v>
+        <v>840</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3473,15 +3477,15 @@
       <c r="G86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>74</v>
       </c>
       <c r="B87" s="5">
-        <v>44922</v>
+        <v>44905</v>
       </c>
       <c r="C87" s="20">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3489,15 +3493,15 @@
       <c r="G87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>74</v>
       </c>
       <c r="B88" s="5">
-        <v>45290</v>
+        <v>44914</v>
       </c>
       <c r="C88" s="20">
-        <v>1000</v>
+        <v>910</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3505,15 +3509,15 @@
       <c r="G88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>74</v>
       </c>
       <c r="B89" s="5">
-        <v>44938</v>
+        <v>44922</v>
       </c>
       <c r="C89" s="20">
-        <v>880</v>
+        <v>850</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3521,15 +3525,15 @@
       <c r="G89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>74</v>
       </c>
       <c r="B90" s="5">
-        <v>44942</v>
+        <v>45290</v>
       </c>
       <c r="C90" s="20">
-        <v>830</v>
+        <v>1000</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3537,15 +3541,15 @@
       <c r="G90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>74</v>
       </c>
       <c r="B91" s="5">
-        <v>44946</v>
+        <v>44938</v>
       </c>
       <c r="C91" s="20">
-        <v>790</v>
+        <v>880</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3553,15 +3557,15 @@
       <c r="G91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>74</v>
       </c>
       <c r="B92" s="5">
-        <v>44951</v>
+        <v>44942</v>
       </c>
       <c r="C92" s="20">
-        <v>730</v>
+        <v>830</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3569,15 +3573,15 @@
       <c r="G92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>74</v>
       </c>
       <c r="B93" s="5">
-        <v>44958</v>
+        <v>44946</v>
       </c>
       <c r="C93" s="20">
-        <v>650</v>
+        <v>790</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3585,15 +3589,15 @@
       <c r="G93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>74</v>
       </c>
       <c r="B94" s="5">
-        <v>44963</v>
+        <v>44951</v>
       </c>
       <c r="C94" s="20">
-        <v>600</v>
+        <v>730</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3601,15 +3605,15 @@
       <c r="G94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>74</v>
       </c>
       <c r="B95" s="5">
-        <v>44970</v>
+        <v>44958</v>
       </c>
       <c r="C95" s="20">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3617,15 +3621,15 @@
       <c r="G95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>74</v>
       </c>
       <c r="B96" s="5">
-        <v>44980</v>
+        <v>44963</v>
       </c>
       <c r="C96" s="20">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3633,15 +3637,15 @@
       <c r="G96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>74</v>
       </c>
       <c r="B97" s="5">
-        <v>44991</v>
+        <v>44970</v>
       </c>
       <c r="C97" s="20">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3649,15 +3653,15 @@
       <c r="G97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>74</v>
       </c>
       <c r="B98" s="5">
-        <v>44998</v>
+        <v>44980</v>
       </c>
       <c r="C98" s="20">
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3665,15 +3669,15 @@
       <c r="G98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>74</v>
       </c>
       <c r="B99" s="5">
-        <v>45008</v>
+        <v>44991</v>
       </c>
       <c r="C99" s="20">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3681,15 +3685,15 @@
       <c r="G99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>74</v>
       </c>
       <c r="B100" s="5">
-        <v>45013</v>
+        <v>44998</v>
       </c>
       <c r="C100" s="20">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3697,15 +3701,15 @@
       <c r="G100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>74</v>
       </c>
       <c r="B101" s="5">
-        <v>45083</v>
+        <v>45008</v>
       </c>
       <c r="C101" s="20">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3713,15 +3717,15 @@
       <c r="G101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>74</v>
       </c>
       <c r="B102" s="5">
-        <v>45086</v>
+        <v>45013</v>
       </c>
       <c r="C102" s="20">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3729,15 +3733,15 @@
       <c r="G102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>74</v>
       </c>
       <c r="B103" s="5">
-        <v>45126</v>
+        <v>45083</v>
       </c>
       <c r="C103" s="20">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3745,15 +3749,15 @@
       <c r="G103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>74</v>
       </c>
       <c r="B104" s="5">
-        <v>45146</v>
+        <v>45086</v>
       </c>
       <c r="C104" s="20">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3761,15 +3765,15 @@
       <c r="G104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>74</v>
       </c>
       <c r="B105" s="5">
-        <v>45236</v>
+        <v>45126</v>
       </c>
       <c r="C105" s="20">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3777,15 +3781,15 @@
       <c r="G105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>74</v>
       </c>
       <c r="B106" s="5">
-        <v>45247</v>
+        <v>45146</v>
       </c>
       <c r="C106" s="20">
-        <v>300</v>
+        <v>490</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3793,15 +3797,15 @@
       <c r="G106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="10" t="s">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>74</v>
       </c>
       <c r="B107" s="5">
-        <v>45307</v>
+        <v>45236</v>
       </c>
       <c r="C107" s="20">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3809,12 +3813,12 @@
       <c r="G107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="10" t="s">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>74</v>
       </c>
       <c r="B108" s="5">
-        <v>45327</v>
+        <v>45247</v>
       </c>
       <c r="C108" s="20">
         <v>300</v>
@@ -3825,15 +3829,15 @@
       <c r="G108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B109" s="5">
-        <v>45337</v>
+        <v>45307</v>
       </c>
       <c r="C109" s="20">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3841,15 +3845,15 @@
       <c r="G109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B110" s="5">
-        <v>45352</v>
+        <v>45327</v>
       </c>
       <c r="C110" s="20">
-        <v>680</v>
+        <v>300</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3857,15 +3861,15 @@
       <c r="G110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B111" s="5">
-        <v>45432</v>
+        <v>45337</v>
       </c>
       <c r="C111" s="20">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3873,15 +3877,15 @@
       <c r="G111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B112" s="5">
-        <v>45454</v>
+        <v>45352</v>
       </c>
       <c r="C112" s="20">
-        <v>290</v>
+        <v>680</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3889,15 +3893,15 @@
       <c r="G112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B113" s="5">
-        <v>45538</v>
+        <v>45432</v>
       </c>
       <c r="C113" s="20">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -3905,15 +3909,15 @@
       <c r="G113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B114" s="5">
-        <v>45645</v>
+        <v>45454</v>
       </c>
       <c r="C114" s="20">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3921,15 +3925,15 @@
       <c r="G114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B115" s="5">
-        <v>45686</v>
+        <v>45538</v>
       </c>
       <c r="C115" s="20">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3937,119 +3941,125 @@
       <c r="G115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="10"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="20"/>
+    <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B116" s="5">
+        <v>45645</v>
+      </c>
+      <c r="C116" s="20">
+        <v>400</v>
+      </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="5"/>
-      <c r="C117" s="20"/>
+    <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B117" s="5">
+        <v>45686</v>
+      </c>
+      <c r="C117" s="20">
+        <v>550</v>
+      </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B118" s="21">
-        <f ca="1">TODAY()+B55-5</f>
-        <v>45990.25</v>
-      </c>
-      <c r="C118" s="18"/>
+    <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B118" s="5">
+        <v>45919</v>
+      </c>
+      <c r="C118" s="20">
+        <v>1000</v>
+      </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+    <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119" s="5">
+        <v>45936</v>
+      </c>
+      <c r="C119" s="20">
+        <v>990</v>
+      </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B120" s="17">
-        <f>B114-B113</f>
-        <v>107</v>
-      </c>
-      <c r="C120" s="2"/>
+    <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="C120" s="20"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B121" s="22">
-        <f>C113-C114</f>
-        <v>400</v>
-      </c>
-      <c r="C121" s="2"/>
+    <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B121" s="21">
+        <f ca="1">TODAY()+B57-5</f>
+        <v>47658</v>
+      </c>
+      <c r="C121" s="18"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B122" s="33">
-        <f>B121/B120</f>
-        <v>3.7383177570093458</v>
-      </c>
-      <c r="C122" s="29">
-        <f>B121/B120</f>
-        <v>3.7383177570093458</v>
-      </c>
+    <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B123" s="33">
-        <f ca="1">(SUM(C136:C141)-C111)/(TODAY()-(TODAY()-365))</f>
-        <v>7.397260273972603</v>
-      </c>
-      <c r="C123" s="29"/>
+        <v>78</v>
+      </c>
+      <c r="B123" s="17">
+        <f>B119-B118</f>
+        <v>17</v>
+      </c>
+      <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B124" s="2">
-        <f>D141</f>
-        <v>1.095</v>
+        <v>79</v>
+      </c>
+      <c r="B124" s="22">
+        <f>C118-C119</f>
+        <v>10</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -4058,589 +4068,658 @@
       <c r="G124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="B125" s="33">
+        <f>B124/B123</f>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="C125" s="29">
+        <f>B124/B123</f>
+        <v>0.58823529411764708</v>
+      </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B126" s="33">
+        <f ca="1">(SUM(C139:C144)-C113)/(TODAY()-(TODAY()-365))</f>
+        <v>7.397260273972603</v>
+      </c>
+      <c r="C126" s="29"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>99</v>
-      </c>
-      <c r="B127" s="5">
-        <v>44211</v>
-      </c>
-      <c r="C127" s="29">
-        <v>500</v>
-      </c>
-      <c r="D127" s="2">
-        <f>0.561983*1.21</f>
-        <v>0.67999942999999996</v>
-      </c>
-      <c r="E127" s="2">
-        <f t="shared" ref="E127:E140" si="0">C127*D127</f>
-        <v>339.99971499999998</v>
-      </c>
+    <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B127" s="2">
+        <f>D148</f>
+        <v>0.99</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B128" s="5">
-        <v>44252</v>
-      </c>
-      <c r="C128" s="29">
-        <v>500</v>
-      </c>
-      <c r="D128" s="2">
-        <f>0.570247*1.21</f>
-        <v>0.68999886999999993</v>
-      </c>
-      <c r="E128" s="2">
-        <f t="shared" si="0"/>
-        <v>344.99943499999995</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B129" s="5">
-        <v>44308</v>
-      </c>
-      <c r="C129" s="29">
-        <v>500</v>
-      </c>
-      <c r="D129" s="2">
-        <f>0.595041*1.21</f>
-        <v>0.71999961000000001</v>
-      </c>
-      <c r="E129" s="2">
-        <f t="shared" si="0"/>
-        <v>359.99980499999998</v>
+    <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="10" t="s">
+    <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>99</v>
       </c>
       <c r="B130" s="5">
-        <v>44468</v>
+        <v>44211</v>
       </c>
       <c r="C130" s="29">
         <v>500</v>
       </c>
       <c r="D130" s="2">
-        <f>0.652892*1.21</f>
-        <v>0.78999932000000006</v>
+        <f>0.561983*1.21</f>
+        <v>0.67999942999999996</v>
       </c>
       <c r="E130" s="2">
-        <f t="shared" si="0"/>
-        <v>394.99966000000001</v>
+        <f t="shared" ref="E130:E143" si="0">C130*D130</f>
+        <v>339.99971499999998</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B131" s="5">
-        <v>44551</v>
+        <v>44252</v>
       </c>
       <c r="C131" s="29">
         <v>500</v>
       </c>
       <c r="D131" s="2">
-        <f>0.694214*1.21</f>
-        <v>0.83999893999999997</v>
+        <f>0.570247*1.21</f>
+        <v>0.68999886999999993</v>
       </c>
       <c r="E131" s="2">
         <f t="shared" si="0"/>
-        <v>419.99946999999997</v>
+        <v>344.99943499999995</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B132" s="5">
-        <v>44589</v>
+        <v>44308</v>
       </c>
       <c r="C132" s="29">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="D132" s="2">
-        <f>0.768595*1.21</f>
-        <v>0.92999995000000002</v>
+        <f>0.595041*1.21</f>
+        <v>0.71999961000000001</v>
       </c>
       <c r="E132" s="2">
         <f t="shared" si="0"/>
-        <v>743.99995999999999</v>
+        <v>359.99980499999998</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B133" s="5">
-        <v>44676</v>
+        <v>44468</v>
       </c>
       <c r="C133" s="29">
         <v>500</v>
       </c>
       <c r="D133" s="2">
-        <v>1.25</v>
+        <f>0.652892*1.21</f>
+        <v>0.78999932000000006</v>
       </c>
       <c r="E133" s="2">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>394.99966000000001</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B134" s="5">
-        <v>44841</v>
+        <v>44551</v>
       </c>
       <c r="C134" s="29">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D134" s="2">
-        <v>1.23</v>
+        <f>0.694214*1.21</f>
+        <v>0.83999893999999997</v>
       </c>
       <c r="E134" s="2">
         <f t="shared" si="0"/>
-        <v>738</v>
+        <v>419.99946999999997</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B135" s="5">
-        <v>44905</v>
+        <v>44589</v>
       </c>
       <c r="C135" s="29">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D135" s="2">
-        <v>1.1000000000000001</v>
+        <f>0.768595*1.21</f>
+        <v>0.92999995000000002</v>
       </c>
       <c r="E135" s="2">
         <f t="shared" si="0"/>
-        <v>440.00000000000006</v>
+        <v>743.99995999999999</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B136" s="5">
-        <v>45291</v>
+        <v>44676</v>
       </c>
       <c r="C136" s="29">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D136" s="2">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="E136" s="2">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>625</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B137" s="5">
-        <f ca="1">B118</f>
-        <v>45990.25</v>
+        <v>44841</v>
       </c>
       <c r="C137" s="29">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D137" s="2">
-        <f>B124</f>
-        <v>1.095</v>
+        <v>1.23</v>
       </c>
       <c r="E137" s="2">
         <f t="shared" si="0"/>
-        <v>547.5</v>
+        <v>738</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B138" s="5">
-        <v>45175</v>
+        <v>44905</v>
       </c>
       <c r="C138" s="29">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D138" s="2">
-        <v>0.95</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E138" s="2">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>440.00000000000006</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B139" s="5">
-        <v>45275</v>
+        <v>45291</v>
       </c>
       <c r="C139" s="29">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="D139" s="2">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="E139" s="2">
         <f t="shared" si="0"/>
-        <v>728</v>
+        <v>248</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B140" s="5">
-        <v>45359</v>
+        <f ca="1">B121</f>
+        <v>47658</v>
       </c>
       <c r="C140" s="29">
         <v>500</v>
       </c>
       <c r="D140" s="2">
-        <v>1.1499999999999999</v>
+        <f>B127</f>
+        <v>0.99</v>
       </c>
       <c r="E140" s="2">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>495</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B141" s="5">
-        <v>45352</v>
+        <v>45175</v>
       </c>
       <c r="C141" s="29">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D141" s="2">
-        <v>1.095</v>
+        <v>0.95</v>
       </c>
       <c r="E141" s="2">
-        <f t="shared" ref="E141" si="1">C141*D141</f>
-        <v>657</v>
+        <f t="shared" si="0"/>
+        <v>475</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B142" s="5">
-        <v>45331</v>
+        <v>45275</v>
       </c>
       <c r="C142" s="29">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D142" s="2">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="E142" s="2">
-        <f t="shared" ref="E142" si="2">C142*D142</f>
-        <v>594</v>
+        <f t="shared" si="0"/>
+        <v>728</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B143" s="5">
-        <v>45667</v>
+        <v>45359</v>
       </c>
       <c r="C143" s="29">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D143" s="2">
-        <v>1.04</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E143" s="2">
-        <f t="shared" ref="E143" si="3">C143*D143</f>
-        <v>624</v>
+        <f t="shared" si="0"/>
+        <v>575</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B144" s="5">
-        <v>45737</v>
+        <v>45352</v>
       </c>
       <c r="C144" s="29">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="D144" s="2">
-        <v>1.04</v>
+        <v>1.095</v>
       </c>
       <c r="E144" s="2">
-        <f t="shared" ref="E144" si="4">C144*D144</f>
-        <v>676</v>
+        <f t="shared" ref="E144" si="1">C144*D144</f>
+        <v>657</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="10"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
+    <row r="145" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B145" s="5">
+        <v>45331</v>
+      </c>
+      <c r="C145" s="29">
+        <v>600</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E145" s="2">
+        <f t="shared" ref="E145" si="2">C145*D145</f>
+        <v>594</v>
+      </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B146" s="2">
-        <f>(746.3)/(5)</f>
-        <v>149.26</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="B146" s="5">
+        <v>45667</v>
+      </c>
+      <c r="C146" s="29">
+        <v>600</v>
+      </c>
+      <c r="D146" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="E146" s="2">
+        <f t="shared" ref="E146" si="3">C146*D146</f>
+        <v>624</v>
+      </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B147" s="2">
-        <v>69.680000000000007</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="B147" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C147" s="29">
+        <v>650</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="E147" s="2">
+        <f t="shared" ref="E147:E148" si="4">C147*D147</f>
+        <v>676</v>
+      </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
+    <row r="148" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B148" s="5">
+        <v>45919</v>
+      </c>
+      <c r="C148" s="29">
+        <v>700</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E148" s="2">
+        <f t="shared" si="4"/>
+        <v>693</v>
+      </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="2"/>
-    </row>
-    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B150" s="2">
+        <f>(746.3)/(5)</f>
+        <v>149.26</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" s="2">
+        <v>250</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="10"/>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B150" s="24"/>
-    </row>
-    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="5">
+      <c r="B154" s="24"/>
+    </row>
+    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="5">
         <v>44872</v>
       </c>
-      <c r="B151" s="31">
+      <c r="B155" s="31">
         <v>58.07</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="5">
+    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="5">
         <v>44876</v>
       </c>
-      <c r="B152" s="31">
+      <c r="B156" s="31">
         <v>63.26</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="5">
+    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="5">
         <v>44880</v>
       </c>
-      <c r="B153" s="31">
+      <c r="B157" s="31">
         <v>75.47</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="5">
+    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="5">
         <v>44881</v>
       </c>
-      <c r="B154" s="31">
+      <c r="B158" s="31">
         <v>52.61</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="5">
+    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
         <v>44886</v>
       </c>
-      <c r="B155" s="31">
+      <c r="B159" s="31">
         <v>61.6</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="5">
+    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
         <v>44886</v>
       </c>
-      <c r="B156" s="31">
+      <c r="B160" s="31">
         <v>24.14</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="5">
+    <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
         <v>44892</v>
       </c>
-      <c r="B157" s="31">
+      <c r="B161" s="31">
         <v>60.61</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="5">
+    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
         <v>44895</v>
       </c>
-      <c r="B158" s="31">
+      <c r="B162" s="31">
         <v>59.02</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="5"/>
-      <c r="C159" s="31"/>
-    </row>
-    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="10" t="s">
+    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="C163" s="31"/>
+    </row>
+    <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B160" s="31">
-        <f>SUM(B151:B158)</f>
+      <c r="B164" s="31">
+        <f>SUM(B155:B162)</f>
         <v>454.78000000000003</v>
       </c>
-      <c r="C160" s="31"/>
-    </row>
-    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="10" t="s">
+      <c r="C164" s="31"/>
+    </row>
+    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B161" s="31">
-        <f>B160/8</f>
+      <c r="B165" s="31">
+        <f>B164/8</f>
         <v>56.847500000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="10" t="s">
+    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B162" s="32">
-        <f>B160-B161</f>
+      <c r="B166" s="32">
+        <f>B164-B165</f>
         <v>397.9325</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="10" t="s">
+    <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B163" s="31">
-        <f>B161</f>
+      <c r="B167" s="31">
+        <f>B165</f>
         <v>56.847500000000004</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+    <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>192</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B170" s="1">
         <f>(70*3)+250</f>
         <v>460</v>
       </c>
@@ -4649,7 +4728,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B123" formulaRange="1"/>
+    <ignoredError sqref="B126" formulaRange="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -4662,31 +4741,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" customWidth="1"/>
-    <col min="9" max="9" width="20.26953125" customWidth="1"/>
-    <col min="10" max="11" width="17.7265625" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="11" width="17.7109375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="18.54296875" customWidth="1"/>
-    <col min="14" max="14" width="19.26953125" customWidth="1"/>
-    <col min="15" max="15" width="15.7265625" customWidth="1"/>
-    <col min="16" max="16" width="11.453125" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" customWidth="1"/>
-    <col min="18" max="18" width="21.453125" customWidth="1"/>
-    <col min="19" max="19" width="14.453125" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="20.26953125" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -4751,7 +4830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>178000</v>
       </c>
@@ -4825,7 +4904,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>176000</v>
       </c>
@@ -4899,12 +4978,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>178000</v>
       </c>
@@ -4979,7 +5058,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>176000</v>
       </c>
@@ -5054,86 +5133,86 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5143,20 +5222,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359E7A64-9B40-4277-B45B-9758224AFFD3}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>215</v>
       </c>
@@ -5173,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>203</v>
       </c>
@@ -5191,7 +5270,7 @@
         <v>2265.38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -5209,7 +5288,7 @@
         <v>2068.04</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -5227,7 +5306,7 @@
         <v>209.82</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>207</v>
       </c>
@@ -5246,7 +5325,7 @@
         <v>-203.67074</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>209</v>
       </c>
@@ -5265,7 +5344,7 @@
         <v>-5.6334460000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>210</v>
       </c>
@@ -5284,7 +5363,7 @@
         <v>-1.6640332800000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -5303,7 +5382,7 @@
         <v>-4.3334200000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>212</v>
       </c>
@@ -5322,7 +5401,7 @@
         <v>-67.168009999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>201</v>
       </c>
@@ -5341,7 +5420,7 @@
         <v>-1013.14252</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -5359,7 +5438,7 @@
         <v>2613.8999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>204</v>
       </c>
@@ -5377,7 +5456,7 @@
         <v>2386.2000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -5395,7 +5474,7 @@
         <v>242.10000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -5414,7 +5493,7 @@
         <v>-235.00470000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -5433,7 +5512,7 @@
         <v>-3.4167900000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -5452,7 +5531,7 @@
         <v>-1.9200384000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>211</v>
       </c>
@@ -5471,7 +5550,7 @@
         <v>-5.0001000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>212</v>
       </c>
@@ -5490,7 +5569,7 @@
         <v>-77.501550000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>201</v>
       </c>
@@ -5509,7 +5588,7 @@
         <v>-1169.0106000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>214</v>
       </c>
@@ -5519,7 +5598,7 @@
         <v>3750.3462215999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>213</v>
       </c>
@@ -5528,7 +5607,7 @@
         <v>4543.24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>208</v>
       </c>
@@ -5536,7 +5615,7 @@
         <v>4254.8999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -5545,7 +5624,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>196</v>
       </c>
@@ -5553,7 +5632,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -5561,7 +5640,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>198</v>
       </c>
@@ -5569,7 +5648,7 @@
         <v>3.8400000000000001E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>199</v>
       </c>
@@ -5577,7 +5656,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -5585,7 +5664,7 @@
         <v>1.55E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>201</v>
       </c>
@@ -5593,7 +5672,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>216</v>
       </c>
@@ -5602,7 +5681,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>217</v>
       </c>
@@ -5610,7 +5689,7 @@
         <v>0.16667000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -5619,7 +5698,7 @@
         <v>722.23666666666668</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>218</v>
       </c>
@@ -5628,7 +5707,7 @@
         <v>833.35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>220</v>
       </c>
@@ -5637,10 +5716,44 @@
         <v>1555.5866666666666</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40">
         <f>((3730/6)/30)*55</f>
         <v>1139.7222222222222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>249</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>250</v>
+      </c>
+      <c r="B44">
+        <f>((B42+B43)/2)*70000</f>
+        <v>10500.000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B45">
+        <f>B44*B35</f>
+        <v>1750.0350000000005</v>
       </c>
     </row>
   </sheetData>
@@ -5658,24 +5771,24 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.26953125" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>165</v>
       </c>
@@ -5722,7 +5835,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>166</v>
       </c>
@@ -5775,7 +5888,7 @@
         <v>2878.68</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>170</v>
       </c>
@@ -5827,7 +5940,7 @@
         <v>7196.7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>185</v>
       </c>
@@ -5836,11 +5949,11 @@
         <v>195.2199999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="32"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>165</v>
       </c>
@@ -5851,7 +5964,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>186</v>
       </c>
@@ -5864,7 +5977,7 @@
         <v>4007.9900000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>187</v>
       </c>
@@ -5877,7 +5990,7 @@
         <v>4595.581666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>175</v>
       </c>
@@ -5886,7 +5999,7 @@
       </c>
       <c r="C13" s="31"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>177</v>
       </c>
@@ -5896,7 +6009,7 @@
       </c>
       <c r="C14" s="32"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>188</v>
       </c>
@@ -5904,7 +6017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>189</v>
       </c>
@@ -5914,10 +6027,10 @@
       </c>
       <c r="C16" s="50"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>(1750+4000)/2</f>
         <v>2875</v>
@@ -5937,18 +6050,18 @@
       <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7265625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.81640625" style="40"/>
+    <col min="1" max="1" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>139</v>
       </c>
@@ -5968,7 +6081,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>144</v>
       </c>
@@ -5988,7 +6101,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>144</v>
       </c>
@@ -6008,7 +6121,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>144</v>
       </c>
@@ -6028,7 +6141,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>144</v>
       </c>
@@ -6048,7 +6161,7 @@
         <v>8.41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
         <v>144</v>
       </c>
@@ -6068,7 +6181,7 @@
         <v>10.51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
         <v>144</v>
       </c>
@@ -6088,7 +6201,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
         <v>144</v>
       </c>
@@ -6108,7 +6221,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
         <v>144</v>
       </c>
@@ -6129,7 +6242,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>144</v>
       </c>
@@ -6149,7 +6262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
         <v>144</v>
       </c>
@@ -6169,7 +6282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
         <v>144</v>
       </c>
@@ -6189,7 +6302,7 @@
         <v>20.84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>144</v>
       </c>
@@ -6209,51 +6322,51 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="41"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
       <c r="F15" s="41"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
       <c r="F17" s="41"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
       <c r="F18" s="41"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" s="46"/>
       <c r="F19" s="41"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F20" s="41"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="46"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F22" s="41"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F23" s="41"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F24" s="41"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F25" s="41"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
@@ -6261,10 +6374,10 @@
       <c r="E26" s="45"/>
       <c r="F26" s="41"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F27" s="41"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -6272,7 +6385,7 @@
       <c r="E28" s="42"/>
       <c r="F28" s="43"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -6280,7 +6393,7 @@
       <c r="E29" s="42"/>
       <c r="F29" s="43"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -6288,7 +6401,7 @@
       <c r="E30" s="42"/>
       <c r="F30" s="43"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -6296,7 +6409,7 @@
       <c r="E31" s="42"/>
       <c r="F31" s="43"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -6304,7 +6417,7 @@
       <c r="E32" s="42"/>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -6312,7 +6425,7 @@
       <c r="E33" s="42"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -6320,162 +6433,162 @@
       <c r="E34" s="42"/>
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="F35" s="43"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="F36" s="41"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F37" s="41"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F38" s="41"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F39" s="41"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F40" s="41"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F41" s="41"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F42" s="41"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F43" s="41"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F44" s="41"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F45" s="41"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F46" s="41"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F47" s="41"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F48" s="41"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="41"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="41"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="41"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="41"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="41"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="41"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="41"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="41"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="41"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="41"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="41"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="41"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" s="41"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" s="41"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" s="41"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="41"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="41"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" s="41"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" s="41"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="41"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" s="41"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" s="41"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" s="41"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" s="41"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" s="41"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" s="41"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" s="41"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" s="41"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" s="41"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" s="41"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79" s="41"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80" s="41"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="41"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="41"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="41"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="41"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="41"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="41"/>
     </row>
   </sheetData>
@@ -6495,13 +6608,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="37"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>127</v>
       </c>
@@ -6509,7 +6622,7 @@
         <v>1926.37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -6518,7 +6631,7 @@
         <v>-884.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>128</v>
       </c>
@@ -6526,7 +6639,7 @@
         <v>-564.41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
@@ -6534,7 +6647,7 @@
         <v>-566.35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>135</v>
       </c>
@@ -6543,7 +6656,7 @@
         <v>-88.990000000000236</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>130</v>
       </c>
@@ -6551,7 +6664,7 @@
         <v>-568.23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>131</v>
       </c>
@@ -6559,7 +6672,7 @@
         <v>-570.19000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>132</v>
       </c>
@@ -6568,7 +6681,7 @@
         <v>-71.459999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>134</v>
       </c>
@@ -6576,7 +6689,7 @@
         <v>-86.16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>133</v>
       </c>
@@ -6584,7 +6697,7 @@
         <v>-211.98</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>136</v>
       </c>
@@ -6608,13 +6721,13 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>164</v>
       </c>
@@ -6623,7 +6736,7 @@
         <v>377.30580000000003</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>118</v>
       </c>
@@ -6632,7 +6745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>116</v>
       </c>
@@ -6640,7 +6753,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>117</v>
       </c>
@@ -6648,7 +6761,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>154</v>
       </c>
@@ -6656,7 +6769,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>155</v>
       </c>
@@ -6664,7 +6777,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>121</v>
       </c>
@@ -6673,7 +6786,7 @@
         <v>20.833333333333332</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>122</v>
       </c>
@@ -6681,7 +6794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -6690,11 +6803,11 @@
         <v>960.13913333333346</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="38"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>119</v>
       </c>
@@ -6703,7 +6816,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>120</v>
       </c>
@@ -6712,7 +6825,7 @@
         <v>34848</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>156</v>
       </c>
@@ -6720,7 +6833,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>123</v>
       </c>
@@ -6728,7 +6841,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>124</v>
       </c>
@@ -6737,7 +6850,7 @@
         <v>139.86086666666654</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>125</v>
       </c>
@@ -6746,7 +6859,7 @@
         <v>339.86086666666654</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -6754,7 +6867,7 @@
         <v>1.4390000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -6762,7 +6875,7 @@
         <v>1.339</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>159</v>
       </c>
@@ -6770,7 +6883,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -6779,7 +6892,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>162</v>
       </c>
@@ -6788,7 +6901,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>161</v>
       </c>
@@ -6797,7 +6910,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>163</v>
       </c>
@@ -6821,15 +6934,15 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -6843,7 +6956,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44312</v>
       </c>
@@ -6854,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>44313</v>
       </c>
@@ -6865,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44314</v>
       </c>
@@ -6876,7 +6989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44315</v>
       </c>
@@ -6887,7 +7000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44316</v>
       </c>
@@ -6898,7 +7011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44317</v>
       </c>
@@ -6909,7 +7022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44318</v>
       </c>
@@ -6920,7 +7033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>44319</v>
       </c>
@@ -6931,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>44320</v>
       </c>
@@ -6942,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44321</v>
       </c>
@@ -6953,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>44322</v>
       </c>
@@ -6964,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>44323</v>
       </c>
@@ -6975,7 +7088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>44324</v>
       </c>
@@ -6986,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>44325</v>
       </c>
@@ -6997,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>44326</v>
       </c>
@@ -7009,7 +7122,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>44327</v>
       </c>
@@ -7021,7 +7134,7 @@
       </c>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>44328</v>
       </c>
@@ -7032,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>44329</v>
       </c>
@@ -7043,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>44330</v>
       </c>
@@ -7054,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>44331</v>
       </c>
@@ -7065,7 +7178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>44332</v>
       </c>
@@ -7076,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>44333</v>
       </c>
@@ -7087,7 +7200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>44334</v>
       </c>
@@ -7099,7 +7212,7 @@
       </c>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>44335</v>
       </c>
@@ -7110,7 +7223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>44336</v>
       </c>
@@ -7121,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>44337</v>
       </c>
@@ -7132,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>44338</v>
       </c>
@@ -7143,7 +7256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>44339</v>
       </c>
@@ -7154,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>44340</v>
       </c>
@@ -7165,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>44341</v>
       </c>
@@ -7176,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>65</v>
       </c>
@@ -7185,7 +7298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>66</v>
       </c>
@@ -7193,7 +7306,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>67</v>
       </c>
@@ -7201,11 +7314,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>1</v>
       </c>
@@ -7228,28 +7341,28 @@
   <sheetPr codeName="Hoja8"/>
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" customWidth="1"/>
-    <col min="12" max="12" width="25.7265625" customWidth="1"/>
-    <col min="13" max="13" width="15.26953125" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -7290,7 +7403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -7341,12 +7454,12 @@
         <v>11261.892892561977</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -7369,7 +7482,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>43522</v>
       </c>
@@ -7396,7 +7509,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>43523</v>
       </c>
@@ -7423,7 +7536,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>43550</v>
       </c>
@@ -7456,7 +7569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>43581</v>
       </c>
@@ -7489,7 +7602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>43611</v>
       </c>
@@ -7516,7 +7629,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>43642</v>
       </c>
@@ -7549,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>43672</v>
       </c>
@@ -7576,7 +7689,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
         <v>43703</v>
       </c>
@@ -7603,7 +7716,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>43734</v>
       </c>
@@ -7630,7 +7743,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
         <v>43764</v>
       </c>
@@ -7657,7 +7770,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>43795</v>
       </c>
@@ -7684,7 +7797,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
         <v>43825</v>
       </c>
@@ -7711,7 +7824,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>43856</v>
       </c>
@@ -7738,7 +7851,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <v>43887</v>
       </c>
@@ -7765,7 +7878,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>43916</v>
       </c>
@@ -7792,7 +7905,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>43947</v>
       </c>
@@ -7819,7 +7932,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>43977</v>
       </c>
@@ -7846,7 +7959,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
         <v>44008</v>
       </c>
@@ -7873,7 +7986,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>44038</v>
       </c>
@@ -7900,7 +8013,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35">
         <v>44069</v>
       </c>
@@ -7927,7 +8040,7 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>44100</v>
       </c>
@@ -7954,7 +8067,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35">
         <v>44130</v>
       </c>
@@ -7981,7 +8094,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>44161</v>
       </c>
@@ -8008,7 +8121,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35">
         <v>44191</v>
       </c>
@@ -8035,7 +8148,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>44222</v>
       </c>
@@ -8062,7 +8175,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35">
         <v>44253</v>
       </c>
@@ -8089,7 +8202,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>44281</v>
       </c>
@@ -8116,7 +8229,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35">
         <v>44312</v>
       </c>
@@ -8143,7 +8256,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>44342</v>
       </c>
@@ -8170,7 +8283,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35">
         <v>44373</v>
       </c>
@@ -8197,7 +8310,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>44403</v>
       </c>
@@ -8224,7 +8337,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>44434</v>
       </c>
@@ -8251,7 +8364,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>44465</v>
       </c>
@@ -8278,7 +8391,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>44495</v>
       </c>
@@ -8305,7 +8418,7 @@
         <v>44470</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>44526</v>
       </c>
@@ -8332,7 +8445,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35">
         <v>44556</v>
       </c>
@@ -8359,7 +8472,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>44587</v>
       </c>
@@ -8386,7 +8499,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35">
         <v>44618</v>
       </c>
@@ -8413,7 +8526,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>44646</v>
       </c>
@@ -8440,7 +8553,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35">
         <v>44677</v>
       </c>
@@ -8467,7 +8580,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>44707</v>
       </c>
@@ -8494,7 +8607,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35">
         <v>44738</v>
       </c>
@@ -8521,7 +8634,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>44768</v>
       </c>
@@ -8548,7 +8661,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35">
         <v>44799</v>
       </c>
@@ -8575,7 +8688,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>44830</v>
       </c>
@@ -8602,7 +8715,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35">
         <v>44860</v>
       </c>
@@ -8629,7 +8742,7 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <v>44891</v>
       </c>
@@ -8656,7 +8769,7 @@
         <v>44866</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35">
         <v>44921</v>
       </c>
@@ -8683,7 +8796,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="35">
         <v>44952</v>
       </c>
@@ -8710,7 +8823,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="35">
         <v>44983</v>
       </c>
@@ -8737,7 +8850,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="35">
         <v>45011</v>
       </c>
@@ -8764,7 +8877,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="35">
         <v>45042</v>
       </c>
@@ -8791,7 +8904,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="35">
         <v>45072</v>
       </c>
@@ -8818,7 +8931,7 @@
         <v>45047</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="35">
         <v>45103</v>
       </c>
@@ -8845,7 +8958,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
         <v>45133</v>
       </c>
@@ -8872,7 +8985,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="35">
         <v>45164</v>
       </c>
@@ -8899,7 +9012,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="35">
         <v>45195</v>
       </c>
@@ -8926,7 +9039,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="35">
         <v>45225</v>
       </c>
@@ -8953,7 +9066,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
         <v>45256</v>
       </c>
@@ -8980,7 +9093,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="35">
         <v>45286</v>
       </c>
@@ -9007,7 +9120,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
         <v>45317</v>
       </c>
@@ -9034,7 +9147,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="35">
         <v>45348</v>
       </c>
@@ -9061,7 +9174,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
         <v>45377</v>
       </c>
@@ -9088,7 +9201,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="35">
         <v>45408</v>
       </c>
@@ -9115,7 +9228,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
         <v>45438</v>
       </c>
@@ -9142,7 +9255,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="35">
         <v>45469</v>
       </c>
@@ -9169,7 +9282,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="35">
         <v>45499</v>
       </c>
@@ -9196,7 +9309,7 @@
         <v>45474</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="35">
         <v>45530</v>
       </c>
@@ -9223,7 +9336,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="35">
         <v>45561</v>
       </c>
@@ -9250,7 +9363,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="35">
         <v>45591</v>
       </c>
@@ -9277,7 +9390,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="35">
         <v>45622</v>
       </c>
@@ -9304,7 +9417,7 @@
         <v>45597</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="35">
         <v>45652</v>
       </c>
@@ -9331,7 +9444,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
         <v>45683</v>
       </c>
@@ -9358,16 +9471,16 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>1</v>
       </c>
@@ -9388,8 +9501,8 @@
         <v>49943.069999999912</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>49</v>
       </c>
@@ -9398,7 +9511,7 @@
         <v>49281.899999999914</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>115</v>
       </c>
@@ -9407,15 +9520,15 @@
         <v>661.16999999999825</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9438,17 +9551,17 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.26953125" customWidth="1"/>
-    <col min="7" max="7" width="26.54296875" customWidth="1"/>
-    <col min="10" max="10" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -9459,7 +9572,7 @@
       <c r="H1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -9470,7 +9583,7 @@
       <c r="H2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -9480,7 +9593,7 @@
       <c r="H3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -9490,7 +9603,7 @@
       <c r="H4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -9500,7 +9613,7 @@
       <c r="H5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -9512,7 +9625,7 @@
       <c r="H6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -9523,18 +9636,18 @@
       <c r="H7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="13"/>
       <c r="H8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="H9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -9547,7 +9660,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -9560,7 +9673,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>96</v>
       </c>
@@ -9573,12 +9686,12 @@
       <c r="J13" s="7"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
@@ -9586,7 +9699,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>82</v>
       </c>
@@ -9594,7 +9707,7 @@
         <v>48997.599999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>88</v>
       </c>
@@ -9603,7 +9716,7 @@
         <v>4083.1333333333332</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>83</v>
       </c>
@@ -9611,7 +9724,7 @@
         <v>3465.8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>84</v>
       </c>
@@ -9619,7 +9732,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>85</v>
       </c>
@@ -9627,7 +9740,7 @@
         <v>18144</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>86</v>
       </c>
@@ -9635,7 +9748,7 @@
         <v>2858.4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>87</v>
       </c>
@@ -9643,7 +9756,7 @@
         <v>0.25919999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>89</v>
       </c>
@@ -9652,70 +9765,70 @@
         <v>2939.8559999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
